--- a/1111.xlsx
+++ b/1111.xlsx
@@ -59,16 +59,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -91,38 +90,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,6 +103,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -151,31 +151,46 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -183,21 +198,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,19 +212,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -242,13 +266,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -260,7 +296,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -272,121 +380,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,26 +430,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -480,6 +471,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -489,17 +495,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -511,10 +511,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -523,19 +523,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -544,112 +544,112 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,11 +1004,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:F938"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A$1:A$1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1045,7 +1045,7 @@
         <v>50000000</v>
       </c>
       <c r="B2">
-        <v>16544</v>
+        <v>13000</v>
       </c>
       <c r="C2">
         <v>2.27272727272727</v>
@@ -1060,7 +1060,7 @@
         <v>10853</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" hidden="1" spans="1:6">
       <c r="A3">
         <v>50000000</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" hidden="1" spans="1:6">
       <c r="A4">
         <v>38171428.5714286</v>
       </c>
@@ -1100,7 +1100,7 @@
         <v>4187</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" hidden="1" spans="1:6">
       <c r="A5">
         <v>31114285.7142857</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>10991</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" hidden="1" spans="1:6">
       <c r="A7">
         <v>24000000</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" hidden="1" spans="1:6">
       <c r="A8">
         <v>21300000</v>
       </c>
@@ -1180,7 +1180,7 @@
         <v>15283</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" hidden="1" spans="1:6">
       <c r="A9">
         <v>20000000</v>
       </c>
@@ -1200,7 +1200,7 @@
         <v>32008</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" hidden="1" spans="1:6">
       <c r="A10">
         <v>19428571.4285714</v>
       </c>
@@ -1220,7 +1220,7 @@
         <v>2664</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" hidden="1" spans="1:6">
       <c r="A11">
         <v>19010000</v>
       </c>
@@ -1240,7 +1240,7 @@
         <v>1544</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" hidden="1" spans="1:6">
       <c r="A12">
         <v>18643807</v>
       </c>
@@ -1260,7 +1260,7 @@
         <v>3673</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" hidden="1" spans="1:6">
       <c r="A13">
         <v>16666666</v>
       </c>
@@ -1280,7 +1280,7 @@
         <v>2543</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" hidden="1" spans="1:6">
       <c r="A14">
         <v>16250000</v>
       </c>
@@ -1325,7 +1325,7 @@
         <v>14540000</v>
       </c>
       <c r="B16">
-        <v>17540</v>
+        <v>14000</v>
       </c>
       <c r="C16">
         <v>1.81818181818181</v>
@@ -1340,7 +1340,7 @@
         <v>12952</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" hidden="1" spans="1:6">
       <c r="A17">
         <v>14100000</v>
       </c>
@@ -1360,7 +1360,7 @@
         <v>2385</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" hidden="1" spans="1:6">
       <c r="A18">
         <v>12000000</v>
       </c>
@@ -1380,7 +1380,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" hidden="1" spans="1:6">
       <c r="A19">
         <v>11770000</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>3166</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" hidden="1" spans="1:6">
       <c r="A20">
         <v>11280000</v>
       </c>
@@ -1420,7 +1420,7 @@
         <v>2416</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" hidden="1" spans="1:6">
       <c r="A21">
         <v>11000000</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>1896</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" hidden="1" spans="1:6">
       <c r="A22">
         <v>11000000</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1716</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" hidden="1" spans="1:6">
       <c r="A23">
         <v>10500000</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>3008</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" hidden="1" spans="1:6">
       <c r="A24">
         <v>10000000</v>
       </c>
@@ -1500,7 +1500,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" hidden="1" spans="1:6">
       <c r="A25">
         <v>10000000</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>10849</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" hidden="1" spans="1:6">
       <c r="A26">
         <v>10000000</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>7221</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" hidden="1" spans="1:6">
       <c r="A27">
         <v>10000000</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>7617</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" hidden="1" spans="1:6">
       <c r="A29">
         <v>10000000</v>
       </c>
@@ -1600,7 +1600,7 @@
         <v>4218</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" hidden="1" spans="1:6">
       <c r="A30">
         <v>9280000</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" hidden="1" spans="1:6">
       <c r="A31">
         <v>9147240</v>
       </c>
@@ -1640,7 +1640,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" hidden="1" spans="1:6">
       <c r="A32">
         <v>8500000</v>
       </c>
@@ -1660,7 +1660,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" hidden="1" spans="1:6">
       <c r="A33">
         <v>8500000</v>
       </c>
@@ -1700,7 +1700,7 @@
         <v>4077</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" hidden="1" spans="1:6">
       <c r="A35">
         <v>8400000</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>4738</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" hidden="1" spans="1:6">
       <c r="A36">
         <v>8000000</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" hidden="1" spans="1:6">
       <c r="A37">
         <v>7590000</v>
       </c>
@@ -1760,7 +1760,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" hidden="1" spans="1:6">
       <c r="A38">
         <v>7000000</v>
       </c>
@@ -1780,7 +1780,7 @@
         <v>3195</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" hidden="1" spans="1:6">
       <c r="A39">
         <v>7000000</v>
       </c>
@@ -1800,7 +1800,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" hidden="1" spans="1:6">
       <c r="A40">
         <v>7000000</v>
       </c>
@@ -1820,7 +1820,7 @@
         <v>2790</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
+    <row r="41" hidden="1" spans="1:6">
       <c r="A41">
         <v>6800000</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>3701</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" hidden="1" spans="1:6">
       <c r="A42">
         <v>6007744</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" hidden="1" spans="1:6">
       <c r="A43">
         <v>6000000</v>
       </c>
@@ -1880,7 +1880,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" hidden="1" spans="1:6">
       <c r="A44">
         <v>6000000</v>
       </c>
@@ -1900,7 +1900,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" hidden="1" spans="1:6">
       <c r="A45">
         <v>6000000</v>
       </c>
@@ -1920,7 +1920,7 @@
         <v>6573</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" hidden="1" spans="1:6">
       <c r="A46">
         <v>5982548</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" hidden="1" spans="1:6">
       <c r="A47">
         <v>5500000</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>2939</v>
       </c>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" hidden="1" spans="1:6">
       <c r="A48">
         <v>5500000</v>
       </c>
@@ -1980,7 +1980,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
+    <row r="49" hidden="1" spans="1:6">
       <c r="A49">
         <v>5370000</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>737</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
+    <row r="50" hidden="1" spans="1:6">
       <c r="A50">
         <v>5300000</v>
       </c>
@@ -2020,7 +2020,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="51" spans="1:6">
+    <row r="51" hidden="1" spans="1:6">
       <c r="A51">
         <v>5275914</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>1705</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
+    <row r="52" hidden="1" spans="1:6">
       <c r="A52">
         <v>5000000</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>6329</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
+    <row r="53" hidden="1" spans="1:6">
       <c r="A53">
         <v>5000000</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>2060</v>
       </c>
     </row>
-    <row r="54" spans="1:6">
+    <row r="54" hidden="1" spans="1:6">
       <c r="A54">
         <v>5000000</v>
       </c>
@@ -2100,7 +2100,7 @@
         <v>3340</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
+    <row r="55" hidden="1" spans="1:6">
       <c r="A55">
         <v>5000000</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>3775</v>
       </c>
     </row>
-    <row r="56" spans="1:6">
+    <row r="56" hidden="1" spans="1:6">
       <c r="A56">
         <v>5000000</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>2837</v>
       </c>
     </row>
-    <row r="57" spans="1:6">
+    <row r="57" hidden="1" spans="1:6">
       <c r="A57">
         <v>5000000</v>
       </c>
@@ -2160,7 +2160,7 @@
         <v>2434</v>
       </c>
     </row>
-    <row r="58" spans="1:6">
+    <row r="58" hidden="1" spans="1:6">
       <c r="A58">
         <v>5000000</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>2759</v>
       </c>
     </row>
-    <row r="59" spans="1:6">
+    <row r="59" hidden="1" spans="1:6">
       <c r="A59">
         <v>5000000</v>
       </c>
@@ -2200,7 +2200,7 @@
         <v>2069</v>
       </c>
     </row>
-    <row r="60" spans="1:6">
+    <row r="60" hidden="1" spans="1:6">
       <c r="A60">
         <v>4700000</v>
       </c>
@@ -2220,7 +2220,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="61" spans="1:6">
+    <row r="61" hidden="1" spans="1:6">
       <c r="A61">
         <v>4700000</v>
       </c>
@@ -2240,7 +2240,7 @@
         <v>3552</v>
       </c>
     </row>
-    <row r="62" spans="1:6">
+    <row r="62" hidden="1" spans="1:6">
       <c r="A62">
         <v>4700000</v>
       </c>
@@ -2260,7 +2260,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="63" spans="1:6">
+    <row r="63" hidden="1" spans="1:6">
       <c r="A63">
         <v>4654955</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>5724</v>
       </c>
     </row>
-    <row r="64" spans="1:6">
+    <row r="64" hidden="1" spans="1:6">
       <c r="A64">
         <v>4563627</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>8158</v>
       </c>
     </row>
-    <row r="65" spans="1:6">
+    <row r="65" hidden="1" spans="1:6">
       <c r="A65">
         <v>4500000</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>828</v>
       </c>
     </row>
-    <row r="67" spans="1:6">
+    <row r="67" hidden="1" spans="1:6">
       <c r="A67">
         <v>4309358</v>
       </c>
@@ -2360,7 +2360,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="68" spans="1:6">
+    <row r="68" hidden="1" spans="1:6">
       <c r="A68">
         <v>4200000</v>
       </c>
@@ -2380,7 +2380,7 @@
         <v>3010</v>
       </c>
     </row>
-    <row r="69" spans="1:6">
+    <row r="69" hidden="1" spans="1:6">
       <c r="A69">
         <v>4120000</v>
       </c>
@@ -2400,7 +2400,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="70" spans="1:6">
+    <row r="70" hidden="1" spans="1:6">
       <c r="A70">
         <v>4100000</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>4320</v>
       </c>
     </row>
-    <row r="71" spans="1:6">
+    <row r="71" hidden="1" spans="1:6">
       <c r="A71">
         <v>4000000</v>
       </c>
@@ -2460,7 +2460,7 @@
         <v>6250</v>
       </c>
     </row>
-    <row r="73" spans="1:6">
+    <row r="73" hidden="1" spans="1:6">
       <c r="A73">
         <v>4000000</v>
       </c>
@@ -2480,7 +2480,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="74" spans="1:6">
+    <row r="74" hidden="1" spans="1:6">
       <c r="A74">
         <v>4000000</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="75" spans="1:6">
+    <row r="75" hidden="1" spans="1:6">
       <c r="A75">
         <v>4000000</v>
       </c>
@@ -2520,7 +2520,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="76" spans="1:6">
+    <row r="76" hidden="1" spans="1:6">
       <c r="A76">
         <v>4000000</v>
       </c>
@@ -2540,7 +2540,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="77" spans="1:6">
+    <row r="77" hidden="1" spans="1:6">
       <c r="A77">
         <v>4000000</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>4291</v>
       </c>
     </row>
-    <row r="78" spans="1:6">
+    <row r="78" hidden="1" spans="1:6">
       <c r="A78">
         <v>4000000</v>
       </c>
@@ -2580,7 +2580,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="79" spans="1:6">
+    <row r="79" hidden="1" spans="1:6">
       <c r="A79">
         <v>4000000</v>
       </c>
@@ -2597,10 +2597,10 @@
         <v>508463</v>
       </c>
       <c r="F79">
-        <v>35000</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>33000</v>
+      </c>
+    </row>
+    <row r="80" hidden="1" spans="1:6">
       <c r="A80">
         <v>4000000</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>3814</v>
       </c>
     </row>
-    <row r="81" spans="1:6">
+    <row r="81" hidden="1" spans="1:6">
       <c r="A81">
         <v>3930000</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="82" spans="1:6">
+    <row r="82" hidden="1" spans="1:6">
       <c r="A82">
         <v>3900000</v>
       </c>
@@ -2660,7 +2660,7 @@
         <v>1831</v>
       </c>
     </row>
-    <row r="83" spans="1:6">
+    <row r="83" hidden="1" spans="1:6">
       <c r="A83">
         <v>3800000</v>
       </c>
@@ -2680,7 +2680,7 @@
         <v>3851</v>
       </c>
     </row>
-    <row r="84" spans="1:6">
+    <row r="84" hidden="1" spans="1:6">
       <c r="A84">
         <v>3605148</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="85" spans="1:6">
+    <row r="85" hidden="1" spans="1:6">
       <c r="A85">
         <v>3600000</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>5463</v>
       </c>
     </row>
-    <row r="86" spans="1:6">
+    <row r="86" hidden="1" spans="1:6">
       <c r="A86">
         <v>3600000</v>
       </c>
@@ -2740,7 +2740,7 @@
         <v>4819</v>
       </c>
     </row>
-    <row r="87" spans="1:6">
+    <row r="87" hidden="1" spans="1:6">
       <c r="A87">
         <v>3571428.57142857</v>
       </c>
@@ -2760,7 +2760,7 @@
         <v>2822</v>
       </c>
     </row>
-    <row r="88" spans="1:6">
+    <row r="88" hidden="1" spans="1:6">
       <c r="A88">
         <v>3500000</v>
       </c>
@@ -2780,7 +2780,7 @@
         <v>756</v>
       </c>
     </row>
-    <row r="89" spans="1:6">
+    <row r="89" hidden="1" spans="1:6">
       <c r="A89">
         <v>3500000</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>3428</v>
       </c>
     </row>
-    <row r="90" spans="1:6">
+    <row r="90" hidden="1" spans="1:6">
       <c r="A90">
         <v>3500000</v>
       </c>
@@ -2820,7 +2820,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="91" spans="1:6">
+    <row r="91" hidden="1" spans="1:6">
       <c r="A91">
         <v>3250000</v>
       </c>
@@ -2860,7 +2860,7 @@
         <v>3158</v>
       </c>
     </row>
-    <row r="93" spans="1:6">
+    <row r="93" hidden="1" spans="1:6">
       <c r="A93">
         <v>3130000</v>
       </c>
@@ -2880,7 +2880,7 @@
         <v>641</v>
       </c>
     </row>
-    <row r="94" spans="1:6">
+    <row r="94" hidden="1" spans="1:6">
       <c r="A94">
         <v>3000000</v>
       </c>
@@ -2900,7 +2900,7 @@
         <v>8820</v>
       </c>
     </row>
-    <row r="95" spans="1:6">
+    <row r="95" hidden="1" spans="1:6">
       <c r="A95">
         <v>3000000</v>
       </c>
@@ -2920,7 +2920,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="96" spans="1:6">
+    <row r="96" hidden="1" spans="1:6">
       <c r="A96">
         <v>3000000</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>2484</v>
       </c>
     </row>
-    <row r="97" spans="1:6">
+    <row r="97" hidden="1" spans="1:6">
       <c r="A97">
         <v>3000000</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>3923</v>
       </c>
     </row>
-    <row r="99" spans="1:6">
+    <row r="99" hidden="1" spans="1:6">
       <c r="A99">
         <v>3000000</v>
       </c>
@@ -3000,7 +3000,7 @@
         <v>8289</v>
       </c>
     </row>
-    <row r="100" spans="1:6">
+    <row r="100" hidden="1" spans="1:6">
       <c r="A100">
         <v>3000000</v>
       </c>
@@ -3020,7 +3020,7 @@
         <v>2946</v>
       </c>
     </row>
-    <row r="101" spans="1:6">
+    <row r="101" hidden="1" spans="1:6">
       <c r="A101">
         <v>2939567</v>
       </c>
@@ -3040,7 +3040,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="102" spans="1:6">
+    <row r="102" hidden="1" spans="1:6">
       <c r="A102">
         <v>2819052</v>
       </c>
@@ -3060,7 +3060,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="1:6">
+    <row r="103" hidden="1" spans="1:6">
       <c r="A103">
         <v>2800000</v>
       </c>
@@ -3080,7 +3080,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="104" spans="1:6">
+    <row r="104" hidden="1" spans="1:6">
       <c r="A104">
         <v>2750000</v>
       </c>
@@ -3100,7 +3100,7 @@
         <v>1986</v>
       </c>
     </row>
-    <row r="105" spans="1:6">
+    <row r="105" hidden="1" spans="1:6">
       <c r="A105">
         <v>2750000</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="106" spans="1:6">
+    <row r="106" hidden="1" spans="1:6">
       <c r="A106">
         <v>2700000</v>
       </c>
@@ -3140,7 +3140,7 @@
         <v>3865</v>
       </c>
     </row>
-    <row r="107" spans="1:6">
+    <row r="107" hidden="1" spans="1:6">
       <c r="A107">
         <v>2606575</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="108" spans="1:6">
+    <row r="108" hidden="1" spans="1:6">
       <c r="A108">
         <v>2602292</v>
       </c>
@@ -3180,7 +3180,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="109" spans="1:6">
+    <row r="109" hidden="1" spans="1:6">
       <c r="A109">
         <v>2560000</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="110" spans="1:6">
+    <row r="110" hidden="1" spans="1:6">
       <c r="A110">
         <v>2500000</v>
       </c>
@@ -3220,7 +3220,7 @@
         <v>2966</v>
       </c>
     </row>
-    <row r="111" spans="1:6">
+    <row r="111" hidden="1" spans="1:6">
       <c r="A111">
         <v>2500000</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>2083</v>
       </c>
     </row>
-    <row r="112" spans="1:6">
+    <row r="112" hidden="1" spans="1:6">
       <c r="A112">
         <v>2500000</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="113" spans="1:6">
+    <row r="113" hidden="1" spans="1:6">
       <c r="A113">
         <v>2500000</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="114" spans="1:6">
+    <row r="114" hidden="1" spans="1:6">
       <c r="A114">
         <v>2500000</v>
       </c>
@@ -3300,7 +3300,7 @@
         <v>1999</v>
       </c>
     </row>
-    <row r="115" spans="1:6">
+    <row r="115" hidden="1" spans="1:6">
       <c r="A115">
         <v>2500000</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>939</v>
       </c>
     </row>
-    <row r="116" spans="1:6">
+    <row r="116" hidden="1" spans="1:6">
       <c r="A116">
         <v>2460000</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>11993</v>
       </c>
     </row>
-    <row r="117" spans="1:6">
+    <row r="117" hidden="1" spans="1:6">
       <c r="A117">
         <v>2400000</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>10538</v>
       </c>
     </row>
-    <row r="118" spans="1:6">
+    <row r="118" hidden="1" spans="1:6">
       <c r="A118">
         <v>2314285.71428571</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>1540</v>
       </c>
     </row>
-    <row r="119" spans="1:6">
+    <row r="119" hidden="1" spans="1:6">
       <c r="A119">
         <v>2290000</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="120" spans="1:6">
+    <row r="120" hidden="1" spans="1:6">
       <c r="A120">
         <v>2250000</v>
       </c>
@@ -3420,7 +3420,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="121" spans="1:6">
+    <row r="121" hidden="1" spans="1:6">
       <c r="A121">
         <v>2170000</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="122" spans="1:6">
+    <row r="122" hidden="1" spans="1:6">
       <c r="A122">
         <v>2157142.85714286</v>
       </c>
@@ -3460,7 +3460,7 @@
         <v>4070</v>
       </c>
     </row>
-    <row r="123" spans="1:6">
+    <row r="123" hidden="1" spans="1:6">
       <c r="A123">
         <v>2153213</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="124" spans="1:6">
+    <row r="124" hidden="1" spans="1:6">
       <c r="A124">
         <v>2147445</v>
       </c>
@@ -3500,7 +3500,7 @@
         <v>677</v>
       </c>
     </row>
-    <row r="125" spans="1:6">
+    <row r="125" hidden="1" spans="1:6">
       <c r="A125">
         <v>2100000</v>
       </c>
@@ -3520,7 +3520,7 @@
         <v>3196</v>
       </c>
     </row>
-    <row r="126" spans="1:6">
+    <row r="126" hidden="1" spans="1:6">
       <c r="A126">
         <v>2100000</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>2266</v>
       </c>
     </row>
-    <row r="127" spans="1:6">
+    <row r="127" hidden="1" spans="1:6">
       <c r="A127">
         <v>2100000</v>
       </c>
@@ -3560,7 +3560,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="128" spans="1:6">
+    <row r="128" hidden="1" spans="1:6">
       <c r="A128">
         <v>2085605</v>
       </c>
@@ -3580,7 +3580,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="129" spans="1:6">
+    <row r="129" hidden="1" spans="1:6">
       <c r="A129">
         <v>2000000</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>3553</v>
       </c>
     </row>
-    <row r="130" spans="1:6">
+    <row r="130" hidden="1" spans="1:6">
       <c r="A130">
         <v>2000000</v>
       </c>
@@ -3620,7 +3620,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="131" spans="1:6">
+    <row r="131" hidden="1" spans="1:6">
       <c r="A131">
         <v>2000000</v>
       </c>
@@ -3640,7 +3640,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="132" spans="1:6">
+    <row r="132" hidden="1" spans="1:6">
       <c r="A132">
         <v>2000000</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>821</v>
       </c>
     </row>
-    <row r="133" spans="1:6">
+    <row r="133" hidden="1" spans="1:6">
       <c r="A133">
         <v>2000000</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>1691</v>
       </c>
     </row>
-    <row r="134" spans="1:6">
+    <row r="134" hidden="1" spans="1:6">
       <c r="A134">
         <v>2000000</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="135" spans="1:6">
+    <row r="135" hidden="1" spans="1:6">
       <c r="A135">
         <v>2000000</v>
       </c>
@@ -3720,7 +3720,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="136" spans="1:6">
+    <row r="136" hidden="1" spans="1:6">
       <c r="A136">
         <v>2000000</v>
       </c>
@@ -3740,7 +3740,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="137" spans="1:6">
+    <row r="137" hidden="1" spans="1:6">
       <c r="A137">
         <v>2000000</v>
       </c>
@@ -3760,7 +3760,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="138" spans="1:6">
+    <row r="138" hidden="1" spans="1:6">
       <c r="A138">
         <v>2000000</v>
       </c>
@@ -3780,7 +3780,7 @@
         <v>2890</v>
       </c>
     </row>
-    <row r="139" spans="1:6">
+    <row r="139" hidden="1" spans="1:6">
       <c r="A139">
         <v>2000000</v>
       </c>
@@ -3800,7 +3800,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="140" spans="1:6">
+    <row r="140" hidden="1" spans="1:6">
       <c r="A140">
         <v>2000000</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="141" spans="1:6">
+    <row r="141" hidden="1" spans="1:6">
       <c r="A141">
         <v>2000000</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="142" spans="1:6">
+    <row r="142" hidden="1" spans="1:6">
       <c r="A142">
         <v>2000000</v>
       </c>
@@ -3860,7 +3860,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="143" spans="1:6">
+    <row r="143" hidden="1" spans="1:6">
       <c r="A143">
         <v>2000000</v>
       </c>
@@ -3880,7 +3880,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="144" spans="1:6">
+    <row r="144" hidden="1" spans="1:6">
       <c r="A144">
         <v>2000000</v>
       </c>
@@ -3900,7 +3900,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="145" spans="1:6">
+    <row r="145" hidden="1" spans="1:6">
       <c r="A145">
         <v>2000000</v>
       </c>
@@ -3920,7 +3920,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="146" spans="1:6">
+    <row r="146" hidden="1" spans="1:6">
       <c r="A146">
         <v>2000000</v>
       </c>
@@ -3940,7 +3940,7 @@
         <v>3417</v>
       </c>
     </row>
-    <row r="147" spans="1:6">
+    <row r="147" hidden="1" spans="1:6">
       <c r="A147">
         <v>2000000</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="148" spans="1:6">
+    <row r="148" hidden="1" spans="1:6">
       <c r="A148">
         <v>2000000</v>
       </c>
@@ -3980,7 +3980,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="149" spans="1:6">
+    <row r="149" hidden="1" spans="1:6">
       <c r="A149">
         <v>2000000</v>
       </c>
@@ -4000,7 +4000,7 @@
         <v>2843</v>
       </c>
     </row>
-    <row r="150" spans="1:6">
+    <row r="150" hidden="1" spans="1:6">
       <c r="A150">
         <v>1983657</v>
       </c>
@@ -4020,7 +4020,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="151" spans="1:6">
+    <row r="151" hidden="1" spans="1:6">
       <c r="A151">
         <v>1967015</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="152" spans="1:6">
+    <row r="152" hidden="1" spans="1:6">
       <c r="A152">
         <v>1853782</v>
       </c>
@@ -4060,7 +4060,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="153" spans="1:6">
+    <row r="153" hidden="1" spans="1:6">
       <c r="A153">
         <v>1851868</v>
       </c>
@@ -4080,7 +4080,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="154" spans="1:6">
+    <row r="154" hidden="1" spans="1:6">
       <c r="A154">
         <v>1800000</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="155" spans="1:6">
+    <row r="155" hidden="1" spans="1:6">
       <c r="A155">
         <v>1700000</v>
       </c>
@@ -4120,7 +4120,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="156" spans="1:6">
+    <row r="156" hidden="1" spans="1:6">
       <c r="A156">
         <v>1696896</v>
       </c>
@@ -4140,7 +4140,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="157" spans="1:6">
+    <row r="157" hidden="1" spans="1:6">
       <c r="A157">
         <v>1682734</v>
       </c>
@@ -4160,7 +4160,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="158" spans="1:6">
+    <row r="158" hidden="1" spans="1:6">
       <c r="A158">
         <v>1631855</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="159" spans="1:6">
+    <row r="159" hidden="1" spans="1:6">
       <c r="A159">
         <v>1566672</v>
       </c>
@@ -4200,7 +4200,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="160" spans="1:6">
+    <row r="160" hidden="1" spans="1:6">
       <c r="A160">
         <v>1516227</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="161" spans="1:6">
+    <row r="161" hidden="1" spans="1:6">
       <c r="A161">
         <v>1500000</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="162" spans="1:6">
+    <row r="162" hidden="1" spans="1:6">
       <c r="A162">
         <v>1500000</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="163" spans="1:6">
+    <row r="163" hidden="1" spans="1:6">
       <c r="A163">
         <v>1500000</v>
       </c>
@@ -4280,7 +4280,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="164" spans="1:6">
+    <row r="164" hidden="1" spans="1:6">
       <c r="A164">
         <v>1500000</v>
       </c>
@@ -4300,7 +4300,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="165" spans="1:6">
+    <row r="165" hidden="1" spans="1:6">
       <c r="A165">
         <v>1500000</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="166" spans="1:6">
+    <row r="166" hidden="1" spans="1:6">
       <c r="A166">
         <v>1500000</v>
       </c>
@@ -4340,7 +4340,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="167" spans="1:6">
+    <row r="167" hidden="1" spans="1:6">
       <c r="A167">
         <v>1500000</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="168" spans="1:6">
+    <row r="168" hidden="1" spans="1:6">
       <c r="A168">
         <v>1500000</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="169" spans="1:6">
+    <row r="169" hidden="1" spans="1:6">
       <c r="A169">
         <v>1500000</v>
       </c>
@@ -4400,7 +4400,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="170" spans="1:6">
+    <row r="170" hidden="1" spans="1:6">
       <c r="A170">
         <v>1500000</v>
       </c>
@@ -4420,7 +4420,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="171" spans="1:6">
+    <row r="171" hidden="1" spans="1:6">
       <c r="A171">
         <v>1498449</v>
       </c>
@@ -4440,7 +4440,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="172" spans="1:6">
+    <row r="172" hidden="1" spans="1:6">
       <c r="A172">
         <v>1488321.42857143</v>
       </c>
@@ -4460,7 +4460,7 @@
         <v>863</v>
       </c>
     </row>
-    <row r="173" spans="1:6">
+    <row r="173" hidden="1" spans="1:6">
       <c r="A173">
         <v>1471428.57142857</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>4907</v>
       </c>
     </row>
-    <row r="174" spans="1:6">
+    <row r="174" hidden="1" spans="1:6">
       <c r="A174">
         <v>1464229</v>
       </c>
@@ -4500,7 +4500,7 @@
         <v>644</v>
       </c>
     </row>
-    <row r="175" spans="1:6">
+    <row r="175" hidden="1" spans="1:6">
       <c r="A175">
         <v>1413060</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="176" spans="1:6">
+    <row r="176" hidden="1" spans="1:6">
       <c r="A176">
         <v>1400000</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="177" spans="1:6">
+    <row r="177" hidden="1" spans="1:6">
       <c r="A177">
         <v>1400000</v>
       </c>
@@ -4560,7 +4560,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="178" spans="1:6">
+    <row r="178" hidden="1" spans="1:6">
       <c r="A178">
         <v>1400000</v>
       </c>
@@ -4580,7 +4580,7 @@
         <v>16588</v>
       </c>
     </row>
-    <row r="179" spans="1:6">
+    <row r="179" hidden="1" spans="1:6">
       <c r="A179">
         <v>1400000</v>
       </c>
@@ -4600,7 +4600,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="180" spans="1:6">
+    <row r="180" hidden="1" spans="1:6">
       <c r="A180">
         <v>1400000</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="181" spans="1:6">
+    <row r="181" hidden="1" spans="1:6">
       <c r="A181">
         <v>1400000</v>
       </c>
@@ -4640,7 +4640,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="182" spans="1:6">
+    <row r="182" hidden="1" spans="1:6">
       <c r="A182">
         <v>1376755</v>
       </c>
@@ -4660,7 +4660,7 @@
         <v>2159</v>
       </c>
     </row>
-    <row r="183" spans="1:6">
+    <row r="183" hidden="1" spans="1:6">
       <c r="A183">
         <v>1369504</v>
       </c>
@@ -4680,7 +4680,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="184" spans="1:6">
+    <row r="184" hidden="1" spans="1:6">
       <c r="A184">
         <v>1358070</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="185" spans="1:6">
+    <row r="185" hidden="1" spans="1:6">
       <c r="A185">
         <v>1352834</v>
       </c>
@@ -4720,7 +4720,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="186" spans="1:6">
+    <row r="186" hidden="1" spans="1:6">
       <c r="A186">
         <v>1331963</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="187" spans="1:6">
+    <row r="187" hidden="1" spans="1:6">
       <c r="A187">
         <v>1330000</v>
       </c>
@@ -4760,7 +4760,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="188" spans="1:6">
+    <row r="188" hidden="1" spans="1:6">
       <c r="A188">
         <v>1323578</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>2423</v>
       </c>
     </row>
-    <row r="189" spans="1:6">
+    <row r="189" hidden="1" spans="1:6">
       <c r="A189">
         <v>1301428.57142857</v>
       </c>
@@ -4800,7 +4800,7 @@
         <v>2341</v>
       </c>
     </row>
-    <row r="190" spans="1:6">
+    <row r="190" hidden="1" spans="1:6">
       <c r="A190">
         <v>1300000</v>
       </c>
@@ -4820,7 +4820,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="191" spans="1:6">
+    <row r="191" hidden="1" spans="1:6">
       <c r="A191">
         <v>1300000</v>
       </c>
@@ -4840,7 +4840,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="192" spans="1:6">
+    <row r="192" hidden="1" spans="1:6">
       <c r="A192">
         <v>1300000</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="193" spans="1:6">
+    <row r="193" hidden="1" spans="1:6">
       <c r="A193">
         <v>1260000</v>
       </c>
@@ -4880,7 +4880,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="194" spans="1:6">
+    <row r="194" hidden="1" spans="1:6">
       <c r="A194">
         <v>1236186</v>
       </c>
@@ -4900,7 +4900,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="195" spans="1:6">
+    <row r="195" hidden="1" spans="1:6">
       <c r="A195">
         <v>1200000</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>2535</v>
       </c>
     </row>
-    <row r="196" spans="1:6">
+    <row r="196" hidden="1" spans="1:6">
       <c r="A196">
         <v>1200000</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="197" spans="1:6">
+    <row r="197" hidden="1" spans="1:6">
       <c r="A197">
         <v>1186829</v>
       </c>
@@ -4960,7 +4960,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="198" spans="1:6">
+    <row r="198" hidden="1" spans="1:6">
       <c r="A198">
         <v>1181288</v>
       </c>
@@ -4980,7 +4980,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="199" spans="1:6">
+    <row r="199" hidden="1" spans="1:6">
       <c r="A199">
         <v>1180000</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="200" spans="1:6">
+    <row r="200" hidden="1" spans="1:6">
       <c r="A200">
         <v>1141383</v>
       </c>
@@ -5020,7 +5020,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="201" spans="1:6">
+    <row r="201" hidden="1" spans="1:6">
       <c r="A201">
         <v>1110000</v>
       </c>
@@ -5040,7 +5040,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="202" spans="1:6">
+    <row r="202" hidden="1" spans="1:6">
       <c r="A202">
         <v>1108262</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="203" spans="1:6">
+    <row r="203" hidden="1" spans="1:6">
       <c r="A203">
         <v>1100000</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="204" spans="1:6">
+    <row r="204" hidden="1" spans="1:6">
       <c r="A204">
         <v>1100000</v>
       </c>
@@ -5100,7 +5100,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="205" spans="1:6">
+    <row r="205" hidden="1" spans="1:6">
       <c r="A205">
         <v>1083514</v>
       </c>
@@ -5120,7 +5120,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="206" spans="1:6">
+    <row r="206" hidden="1" spans="1:6">
       <c r="A206">
         <v>1061209</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="207" spans="1:6">
+    <row r="207" hidden="1" spans="1:6">
       <c r="A207">
         <v>1052510</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="208" spans="1:6">
+    <row r="208" hidden="1" spans="1:6">
       <c r="A208">
         <v>1040000</v>
       </c>
@@ -5180,7 +5180,7 @@
         <v>722</v>
       </c>
     </row>
-    <row r="209" spans="1:6">
+    <row r="209" hidden="1" spans="1:6">
       <c r="A209">
         <v>1030000</v>
       </c>
@@ -5200,7 +5200,7 @@
         <v>2979</v>
       </c>
     </row>
-    <row r="210" spans="1:6">
+    <row r="210" hidden="1" spans="1:6">
       <c r="A210">
         <v>1030000</v>
       </c>
@@ -5220,7 +5220,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="211" spans="1:6">
+    <row r="211" hidden="1" spans="1:6">
       <c r="A211">
         <v>1020632</v>
       </c>
@@ -5240,7 +5240,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="212" spans="1:6">
+    <row r="212" hidden="1" spans="1:6">
       <c r="A212">
         <v>1020000</v>
       </c>
@@ -5260,7 +5260,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="213" spans="1:6">
+    <row r="213" hidden="1" spans="1:6">
       <c r="A213">
         <v>1019383</v>
       </c>
@@ -5280,7 +5280,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="214" spans="1:6">
+    <row r="214" hidden="1" spans="1:6">
       <c r="A214">
         <v>1010000</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="215" spans="1:6">
+    <row r="215" hidden="1" spans="1:6">
       <c r="A215">
         <v>1000000</v>
       </c>
@@ -5320,7 +5320,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="216" spans="1:6">
+    <row r="216" hidden="1" spans="1:6">
       <c r="A216">
         <v>1000000</v>
       </c>
@@ -5340,7 +5340,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="217" spans="1:6">
+    <row r="217" hidden="1" spans="1:6">
       <c r="A217">
         <v>1000000</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>795</v>
       </c>
     </row>
-    <row r="218" spans="1:6">
+    <row r="218" hidden="1" spans="1:6">
       <c r="A218">
         <v>1000000</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>946</v>
       </c>
     </row>
-    <row r="219" spans="1:6">
+    <row r="219" hidden="1" spans="1:6">
       <c r="A219">
         <v>1000000</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="220" spans="1:6">
+    <row r="220" hidden="1" spans="1:6">
       <c r="A220">
         <v>1000000</v>
       </c>
@@ -5420,7 +5420,7 @@
         <v>1631</v>
       </c>
     </row>
-    <row r="221" spans="1:6">
+    <row r="221" hidden="1" spans="1:6">
       <c r="A221">
         <v>1000000</v>
       </c>
@@ -5440,7 +5440,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="222" spans="1:6">
+    <row r="222" hidden="1" spans="1:6">
       <c r="A222">
         <v>1000000</v>
       </c>
@@ -5460,7 +5460,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="223" spans="1:6">
+    <row r="223" hidden="1" spans="1:6">
       <c r="A223">
         <v>1000000</v>
       </c>
@@ -5480,7 +5480,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="224" spans="1:6">
+    <row r="224" hidden="1" spans="1:6">
       <c r="A224">
         <v>1000000</v>
       </c>
@@ -5500,7 +5500,7 @@
         <v>1800</v>
       </c>
     </row>
-    <row r="225" spans="1:6">
+    <row r="225" hidden="1" spans="1:6">
       <c r="A225">
         <v>1000000</v>
       </c>
@@ -5520,7 +5520,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="226" spans="1:6">
+    <row r="226" hidden="1" spans="1:6">
       <c r="A226">
         <v>1000000</v>
       </c>
@@ -5540,7 +5540,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="227" spans="1:6">
+    <row r="227" hidden="1" spans="1:6">
       <c r="A227">
         <v>1000000</v>
       </c>
@@ -5560,7 +5560,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="228" spans="1:6">
+    <row r="228" hidden="1" spans="1:6">
       <c r="A228">
         <v>1000000</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>885</v>
       </c>
     </row>
-    <row r="229" spans="1:6">
+    <row r="229" hidden="1" spans="1:6">
       <c r="A229">
         <v>1000000</v>
       </c>
@@ -5600,7 +5600,7 @@
         <v>2226</v>
       </c>
     </row>
-    <row r="230" spans="1:6">
+    <row r="230" hidden="1" spans="1:6">
       <c r="A230">
         <v>1000000</v>
       </c>
@@ -5620,7 +5620,7 @@
         <v>3361</v>
       </c>
     </row>
-    <row r="231" spans="1:6">
+    <row r="231" hidden="1" spans="1:6">
       <c r="A231">
         <v>1000000</v>
       </c>
@@ -5640,7 +5640,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="232" spans="1:6">
+    <row r="232" hidden="1" spans="1:6">
       <c r="A232">
         <v>1000000</v>
       </c>
@@ -5660,7 +5660,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="233" spans="1:6">
+    <row r="233" hidden="1" spans="1:6">
       <c r="A233">
         <v>1000000</v>
       </c>
@@ -5680,7 +5680,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="234" spans="1:6">
+    <row r="234" hidden="1" spans="1:6">
       <c r="A234">
         <v>1000000</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>2208</v>
       </c>
     </row>
-    <row r="235" spans="1:6">
+    <row r="235" hidden="1" spans="1:6">
       <c r="A235">
         <v>1000000</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="236" spans="1:6">
+    <row r="236" hidden="1" spans="1:6">
       <c r="A236">
         <v>1000000</v>
       </c>
@@ -5740,7 +5740,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="237" spans="1:6">
+    <row r="237" hidden="1" spans="1:6">
       <c r="A237">
         <v>1000000</v>
       </c>
@@ -5760,7 +5760,7 @@
         <v>7543</v>
       </c>
     </row>
-    <row r="238" spans="1:6">
+    <row r="238" hidden="1" spans="1:6">
       <c r="A238">
         <v>1000000</v>
       </c>
@@ -5780,7 +5780,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="239" spans="1:6">
+    <row r="239" hidden="1" spans="1:6">
       <c r="A239">
         <v>1000000</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="240" spans="1:6">
+    <row r="240" hidden="1" spans="1:6">
       <c r="A240">
         <v>1000000</v>
       </c>
@@ -5820,7 +5820,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="241" spans="1:6">
+    <row r="241" hidden="1" spans="1:6">
       <c r="A241">
         <v>1000000</v>
       </c>
@@ -5840,7 +5840,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="242" spans="1:6">
+    <row r="242" hidden="1" spans="1:6">
       <c r="A242">
         <v>1000000</v>
       </c>
@@ -5860,7 +5860,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="243" spans="1:6">
+    <row r="243" hidden="1" spans="1:6">
       <c r="A243">
         <v>1000000</v>
       </c>
@@ -5880,7 +5880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="244" spans="1:6">
+    <row r="244" hidden="1" spans="1:6">
       <c r="A244">
         <v>1000000</v>
       </c>
@@ -5900,7 +5900,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="245" spans="1:6">
+    <row r="245" hidden="1" spans="1:6">
       <c r="A245">
         <v>1000000</v>
       </c>
@@ -5920,7 +5920,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="246" spans="1:6">
+    <row r="246" hidden="1" spans="1:6">
       <c r="A246">
         <v>1000000</v>
       </c>
@@ -5940,7 +5940,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="247" spans="1:6">
+    <row r="247" hidden="1" spans="1:6">
       <c r="A247">
         <v>1000000</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>2898</v>
       </c>
     </row>
-    <row r="248" spans="1:6">
+    <row r="248" hidden="1" spans="1:6">
       <c r="A248">
         <v>1000000</v>
       </c>
@@ -5980,7 +5980,7 @@
         <v>950</v>
       </c>
     </row>
-    <row r="249" spans="1:6">
+    <row r="249" hidden="1" spans="1:6">
       <c r="A249">
         <v>1000000</v>
       </c>
@@ -6000,7 +6000,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="250" spans="1:6">
+    <row r="250" hidden="1" spans="1:6">
       <c r="A250">
         <v>1000000</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="251" spans="1:6">
+    <row r="251" hidden="1" spans="1:6">
       <c r="A251">
         <v>1000000</v>
       </c>
@@ -6040,7 +6040,7 @@
         <v>767</v>
       </c>
     </row>
-    <row r="252" spans="1:6">
+    <row r="252" hidden="1" spans="1:6">
       <c r="A252">
         <v>1000000</v>
       </c>
@@ -6060,7 +6060,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="253" spans="1:6">
+    <row r="253" hidden="1" spans="1:6">
       <c r="A253">
         <v>1000000</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="254" spans="1:6">
+    <row r="254" hidden="1" spans="1:6">
       <c r="A254">
         <v>1000000</v>
       </c>
@@ -6100,7 +6100,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="255" spans="1:6">
+    <row r="255" hidden="1" spans="1:6">
       <c r="A255">
         <v>1000000</v>
       </c>
@@ -6120,7 +6120,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="256" spans="1:6">
+    <row r="256" hidden="1" spans="1:6">
       <c r="A256">
         <v>1000000</v>
       </c>
@@ -6140,7 +6140,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="257" spans="1:6">
+    <row r="257" hidden="1" spans="1:6">
       <c r="A257">
         <v>1000000</v>
       </c>
@@ -6160,7 +6160,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="258" spans="1:6">
+    <row r="258" hidden="1" spans="1:6">
       <c r="A258">
         <v>1000000</v>
       </c>
@@ -6180,7 +6180,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="259" spans="1:6">
+    <row r="259" hidden="1" spans="1:6">
       <c r="A259">
         <v>1000000</v>
       </c>
@@ -6200,7 +6200,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="260" spans="1:6">
+    <row r="260" hidden="1" spans="1:6">
       <c r="A260">
         <v>1000000</v>
       </c>
@@ -6220,7 +6220,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="261" spans="1:6">
+    <row r="261" hidden="1" spans="1:6">
       <c r="A261">
         <v>987543</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>1971</v>
       </c>
     </row>
-    <row r="262" spans="1:6">
+    <row r="262" hidden="1" spans="1:6">
       <c r="A262">
         <v>955731</v>
       </c>
@@ -6260,7 +6260,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="263" spans="1:6">
+    <row r="263" hidden="1" spans="1:6">
       <c r="A263">
         <v>955508</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="264" spans="1:6">
+    <row r="264" hidden="1" spans="1:6">
       <c r="A264">
         <v>952680</v>
       </c>
@@ -6300,7 +6300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:6">
+    <row r="265" hidden="1" spans="1:6">
       <c r="A265">
         <v>952431</v>
       </c>
@@ -6320,7 +6320,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="266" spans="1:6">
+    <row r="266" hidden="1" spans="1:6">
       <c r="A266">
         <v>920000</v>
       </c>
@@ -6340,7 +6340,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="267" spans="1:6">
+    <row r="267" hidden="1" spans="1:6">
       <c r="A267">
         <v>918038</v>
       </c>
@@ -6360,7 +6360,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="268" spans="1:6">
+    <row r="268" hidden="1" spans="1:6">
       <c r="A268">
         <v>900000</v>
       </c>
@@ -6380,7 +6380,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="269" spans="1:6">
+    <row r="269" hidden="1" spans="1:6">
       <c r="A269">
         <v>900000</v>
       </c>
@@ -6400,7 +6400,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="270" spans="1:6">
+    <row r="270" hidden="1" spans="1:6">
       <c r="A270">
         <v>885000</v>
       </c>
@@ -6420,7 +6420,7 @@
         <v>2116</v>
       </c>
     </row>
-    <row r="271" spans="1:6">
+    <row r="271" hidden="1" spans="1:6">
       <c r="A271">
         <v>880000</v>
       </c>
@@ -6440,7 +6440,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="272" spans="1:6">
+    <row r="272" hidden="1" spans="1:6">
       <c r="A272">
         <v>877129</v>
       </c>
@@ -6460,7 +6460,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="273" spans="1:6">
+    <row r="273" hidden="1" spans="1:6">
       <c r="A273">
         <v>870000</v>
       </c>
@@ -6480,7 +6480,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="274" spans="1:6">
+    <row r="274" hidden="1" spans="1:6">
       <c r="A274">
         <v>840770</v>
       </c>
@@ -6500,7 +6500,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="275" spans="1:6">
+    <row r="275" hidden="1" spans="1:6">
       <c r="A275">
         <v>820000</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="276" spans="1:6">
+    <row r="276" hidden="1" spans="1:6">
       <c r="A276">
         <v>815169</v>
       </c>
@@ -6540,7 +6540,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="277" spans="1:6">
+    <row r="277" hidden="1" spans="1:6">
       <c r="A277">
         <v>798745</v>
       </c>
@@ -6560,7 +6560,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="278" spans="1:6">
+    <row r="278" hidden="1" spans="1:6">
       <c r="A278">
         <v>790000</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="279" spans="1:6">
+    <row r="279" hidden="1" spans="1:6">
       <c r="A279">
         <v>781447</v>
       </c>
@@ -6600,7 +6600,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="280" spans="1:6">
+    <row r="280" hidden="1" spans="1:6">
       <c r="A280">
         <v>777372</v>
       </c>
@@ -6620,7 +6620,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="281" spans="1:6">
+    <row r="281" hidden="1" spans="1:6">
       <c r="A281">
         <v>770000</v>
       </c>
@@ -6640,7 +6640,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="282" spans="1:6">
+    <row r="282" hidden="1" spans="1:6">
       <c r="A282">
         <v>764290</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="283" spans="1:6">
+    <row r="283" hidden="1" spans="1:6">
       <c r="A283">
         <v>750761</v>
       </c>
@@ -6680,7 +6680,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="284" spans="1:6">
+    <row r="284" hidden="1" spans="1:6">
       <c r="A284">
         <v>740790</v>
       </c>
@@ -6700,7 +6700,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="285" spans="1:6">
+    <row r="285" hidden="1" spans="1:6">
       <c r="A285">
         <v>735979</v>
       </c>
@@ -6720,7 +6720,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="286" spans="1:6">
+    <row r="286" hidden="1" spans="1:6">
       <c r="A286">
         <v>730000</v>
       </c>
@@ -6740,7 +6740,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="287" spans="1:6">
+    <row r="287" hidden="1" spans="1:6">
       <c r="A287">
         <v>728091</v>
       </c>
@@ -6760,7 +6760,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="288" spans="1:6">
+    <row r="288" hidden="1" spans="1:6">
       <c r="A288">
         <v>714623</v>
       </c>
@@ -6780,7 +6780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="289" spans="1:6">
+    <row r="289" hidden="1" spans="1:6">
       <c r="A289">
         <v>707718</v>
       </c>
@@ -6800,7 +6800,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="290" spans="1:6">
+    <row r="290" hidden="1" spans="1:6">
       <c r="A290">
         <v>702654</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="291" spans="1:6">
+    <row r="291" hidden="1" spans="1:6">
       <c r="A291">
         <v>700000</v>
       </c>
@@ -6840,7 +6840,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="292" spans="1:6">
+    <row r="292" hidden="1" spans="1:6">
       <c r="A292">
         <v>700000</v>
       </c>
@@ -6860,7 +6860,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="293" spans="1:6">
+    <row r="293" hidden="1" spans="1:6">
       <c r="A293">
         <v>691324</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>755</v>
       </c>
     </row>
-    <row r="294" spans="1:6">
+    <row r="294" hidden="1" spans="1:6">
       <c r="A294">
         <v>688243</v>
       </c>
@@ -6900,7 +6900,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="295" spans="1:6">
+    <row r="295" hidden="1" spans="1:6">
       <c r="A295">
         <v>680572</v>
       </c>
@@ -6920,7 +6920,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="296" spans="1:6">
+    <row r="296" hidden="1" spans="1:6">
       <c r="A296">
         <v>671540</v>
       </c>
@@ -6940,7 +6940,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="297" spans="1:6">
+    <row r="297" hidden="1" spans="1:6">
       <c r="A297">
         <v>668962</v>
       </c>
@@ -6960,7 +6960,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="298" spans="1:6">
+    <row r="298" hidden="1" spans="1:6">
       <c r="A298">
         <v>660000</v>
       </c>
@@ -6980,7 +6980,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="299" spans="1:6">
+    <row r="299" hidden="1" spans="1:6">
       <c r="A299">
         <v>653179</v>
       </c>
@@ -7000,7 +7000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="300" spans="1:6">
+    <row r="300" hidden="1" spans="1:6">
       <c r="A300">
         <v>646962</v>
       </c>
@@ -7020,7 +7020,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="301" spans="1:6">
+    <row r="301" hidden="1" spans="1:6">
       <c r="A301">
         <v>642851</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="302" spans="1:6">
+    <row r="302" hidden="1" spans="1:6">
       <c r="A302">
         <v>633209</v>
       </c>
@@ -7060,7 +7060,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="303" spans="1:6">
+    <row r="303" hidden="1" spans="1:6">
       <c r="A303">
         <v>620000</v>
       </c>
@@ -7080,7 +7080,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="304" spans="1:6">
+    <row r="304" hidden="1" spans="1:6">
       <c r="A304">
         <v>610000</v>
       </c>
@@ -7100,7 +7100,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="305" spans="1:6">
+    <row r="305" hidden="1" spans="1:6">
       <c r="A305">
         <v>601365</v>
       </c>
@@ -7120,7 +7120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="306" spans="1:6">
+    <row r="306" hidden="1" spans="1:6">
       <c r="A306">
         <v>600000</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="307" spans="1:6">
+    <row r="307" hidden="1" spans="1:6">
       <c r="A307">
         <v>592993</v>
       </c>
@@ -7160,7 +7160,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="308" spans="1:6">
+    <row r="308" hidden="1" spans="1:6">
       <c r="A308">
         <v>589688</v>
       </c>
@@ -7180,7 +7180,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="309" spans="1:6">
+    <row r="309" hidden="1" spans="1:6">
       <c r="A309">
         <v>587213</v>
       </c>
@@ -7200,7 +7200,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="310" spans="1:6">
+    <row r="310" hidden="1" spans="1:6">
       <c r="A310">
         <v>583602</v>
       </c>
@@ -7220,7 +7220,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="311" spans="1:6">
+    <row r="311" hidden="1" spans="1:6">
       <c r="A311">
         <v>570000</v>
       </c>
@@ -7240,7 +7240,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="312" spans="1:6">
+    <row r="312" hidden="1" spans="1:6">
       <c r="A312">
         <v>563737</v>
       </c>
@@ -7260,7 +7260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="313" spans="1:6">
+    <row r="313" hidden="1" spans="1:6">
       <c r="A313">
         <v>562631</v>
       </c>
@@ -7280,7 +7280,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="314" spans="1:6">
+    <row r="314" hidden="1" spans="1:6">
       <c r="A314">
         <v>554955</v>
       </c>
@@ -7300,7 +7300,7 @@
         <v>872</v>
       </c>
     </row>
-    <row r="315" spans="1:6">
+    <row r="315" hidden="1" spans="1:6">
       <c r="A315">
         <v>549148</v>
       </c>
@@ -7320,7 +7320,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="316" spans="1:6">
+    <row r="316" hidden="1" spans="1:6">
       <c r="A316">
         <v>540496</v>
       </c>
@@ -7340,7 +7340,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="317" spans="1:6">
+    <row r="317" hidden="1" spans="1:6">
       <c r="A317">
         <v>540000</v>
       </c>
@@ -7360,7 +7360,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="318" spans="1:6">
+    <row r="318" hidden="1" spans="1:6">
       <c r="A318">
         <v>539248</v>
       </c>
@@ -7380,7 +7380,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="319" spans="1:6">
+    <row r="319" hidden="1" spans="1:6">
       <c r="A319">
         <v>538219</v>
       </c>
@@ -7400,7 +7400,7 @@
         <v>2127</v>
       </c>
     </row>
-    <row r="320" spans="1:6">
+    <row r="320" hidden="1" spans="1:6">
       <c r="A320">
         <v>538061</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="321" spans="1:6">
+    <row r="321" hidden="1" spans="1:6">
       <c r="A321">
         <v>535073.333333333</v>
       </c>
@@ -7440,7 +7440,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="322" spans="1:6">
+    <row r="322" hidden="1" spans="1:6">
       <c r="A322">
         <v>534443</v>
       </c>
@@ -7460,7 +7460,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="323" spans="1:6">
+    <row r="323" hidden="1" spans="1:6">
       <c r="A323">
         <v>530000</v>
       </c>
@@ -7480,7 +7480,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="324" spans="1:6">
+    <row r="324" hidden="1" spans="1:6">
       <c r="A324">
         <v>520000</v>
       </c>
@@ -7500,7 +7500,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="325" spans="1:6">
+    <row r="325" hidden="1" spans="1:6">
       <c r="A325">
         <v>520000</v>
       </c>
@@ -7520,7 +7520,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="326" spans="1:6">
+    <row r="326" hidden="1" spans="1:6">
       <c r="A326">
         <v>519467</v>
       </c>
@@ -7540,7 +7540,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="327" spans="1:6">
+    <row r="327" hidden="1" spans="1:6">
       <c r="A327">
         <v>500000</v>
       </c>
@@ -7560,7 +7560,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="328" spans="1:6">
+    <row r="328" hidden="1" spans="1:6">
       <c r="A328">
         <v>500000</v>
       </c>
@@ -7580,7 +7580,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="329" spans="1:6">
+    <row r="329" hidden="1" spans="1:6">
       <c r="A329">
         <v>500000</v>
       </c>
@@ -7600,7 +7600,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="330" spans="1:6">
+    <row r="330" hidden="1" spans="1:6">
       <c r="A330">
         <v>500000</v>
       </c>
@@ -7620,7 +7620,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="331" spans="1:6">
+    <row r="331" hidden="1" spans="1:6">
       <c r="A331">
         <v>500000</v>
       </c>
@@ -7640,7 +7640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="332" spans="1:6">
+    <row r="332" hidden="1" spans="1:6">
       <c r="A332">
         <v>500000</v>
       </c>
@@ -7660,7 +7660,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="333" spans="1:6">
+    <row r="333" hidden="1" spans="1:6">
       <c r="A333">
         <v>500000</v>
       </c>
@@ -7680,7 +7680,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="334" spans="1:6">
+    <row r="334" hidden="1" spans="1:6">
       <c r="A334">
         <v>500000</v>
       </c>
@@ -7700,7 +7700,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="335" spans="1:6">
+    <row r="335" hidden="1" spans="1:6">
       <c r="A335">
         <v>500000</v>
       </c>
@@ -7720,7 +7720,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="336" spans="1:6">
+    <row r="336" hidden="1" spans="1:6">
       <c r="A336">
         <v>500000</v>
       </c>
@@ -7740,7 +7740,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="337" spans="1:6">
+    <row r="337" hidden="1" spans="1:6">
       <c r="A337">
         <v>500000</v>
       </c>
@@ -7760,7 +7760,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="338" spans="1:6">
+    <row r="338" hidden="1" spans="1:6">
       <c r="A338">
         <v>500000</v>
       </c>
@@ -7780,7 +7780,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="339" spans="1:6">
+    <row r="339" hidden="1" spans="1:6">
       <c r="A339">
         <v>500000</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="340" spans="1:6">
+    <row r="340" hidden="1" spans="1:6">
       <c r="A340">
         <v>500000</v>
       </c>
@@ -7820,7 +7820,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="341" spans="1:6">
+    <row r="341" hidden="1" spans="1:6">
       <c r="A341">
         <v>500000</v>
       </c>
@@ -7840,7 +7840,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="342" spans="1:6">
+    <row r="342" hidden="1" spans="1:6">
       <c r="A342">
         <v>500000</v>
       </c>
@@ -7860,7 +7860,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="343" spans="1:6">
+    <row r="343" hidden="1" spans="1:6">
       <c r="A343">
         <v>500000</v>
       </c>
@@ -7880,7 +7880,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="344" spans="1:6">
+    <row r="344" hidden="1" spans="1:6">
       <c r="A344">
         <v>500000</v>
       </c>
@@ -7900,7 +7900,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="345" spans="1:6">
+    <row r="345" hidden="1" spans="1:6">
       <c r="A345">
         <v>499550</v>
       </c>
@@ -7920,7 +7920,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="346" spans="1:6">
+    <row r="346" hidden="1" spans="1:6">
       <c r="A346">
         <v>498487</v>
       </c>
@@ -7940,7 +7940,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="347" spans="1:6">
+    <row r="347" hidden="1" spans="1:6">
       <c r="A347">
         <v>496869</v>
       </c>
@@ -7960,7 +7960,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="348" spans="1:6">
+    <row r="348" hidden="1" spans="1:6">
       <c r="A348">
         <v>480000</v>
       </c>
@@ -7980,7 +7980,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="349" spans="1:6">
+    <row r="349" hidden="1" spans="1:6">
       <c r="A349">
         <v>476035</v>
       </c>
@@ -8000,7 +8000,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="350" spans="1:6">
+    <row r="350" hidden="1" spans="1:6">
       <c r="A350">
         <v>474515</v>
       </c>
@@ -8020,7 +8020,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="351" spans="1:6">
+    <row r="351" hidden="1" spans="1:6">
       <c r="A351">
         <v>460000</v>
       </c>
@@ -8040,7 +8040,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="352" spans="1:6">
+    <row r="352" hidden="1" spans="1:6">
       <c r="A352">
         <v>456656</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="353" spans="1:6">
+    <row r="353" hidden="1" spans="1:6">
       <c r="A353">
         <v>453247</v>
       </c>
@@ -8080,7 +8080,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="354" spans="1:6">
+    <row r="354" hidden="1" spans="1:6">
       <c r="A354">
         <v>452658</v>
       </c>
@@ -8100,7 +8100,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="355" spans="1:6">
+    <row r="355" hidden="1" spans="1:6">
       <c r="A355">
         <v>451407</v>
       </c>
@@ -8120,7 +8120,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="356" spans="1:6">
+    <row r="356" hidden="1" spans="1:6">
       <c r="A356">
         <v>450000</v>
       </c>
@@ -8140,7 +8140,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="357" spans="1:6">
+    <row r="357" hidden="1" spans="1:6">
       <c r="A357">
         <v>450000</v>
       </c>
@@ -8160,7 +8160,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="358" spans="1:6">
+    <row r="358" hidden="1" spans="1:6">
       <c r="A358">
         <v>449687</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="359" spans="1:6">
+    <row r="359" hidden="1" spans="1:6">
       <c r="A359">
         <v>446523</v>
       </c>
@@ -8200,7 +8200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="360" spans="1:6">
+    <row r="360" hidden="1" spans="1:6">
       <c r="A360">
         <v>440000</v>
       </c>
@@ -8220,7 +8220,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="361" spans="1:6">
+    <row r="361" hidden="1" spans="1:6">
       <c r="A361">
         <v>433874</v>
       </c>
@@ -8240,7 +8240,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="362" spans="1:6">
+    <row r="362" hidden="1" spans="1:6">
       <c r="A362">
         <v>431669</v>
       </c>
@@ -8260,7 +8260,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="363" spans="1:6">
+    <row r="363" hidden="1" spans="1:6">
       <c r="A363">
         <v>422000</v>
       </c>
@@ -8280,7 +8280,7 @@
         <v>2364</v>
       </c>
     </row>
-    <row r="364" spans="1:6">
+    <row r="364" hidden="1" spans="1:6">
       <c r="A364">
         <v>418000</v>
       </c>
@@ -8300,7 +8300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="365" spans="1:6">
+    <row r="365" hidden="1" spans="1:6">
       <c r="A365">
         <v>403871.428571429</v>
       </c>
@@ -8320,7 +8320,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="366" spans="1:6">
+    <row r="366" hidden="1" spans="1:6">
       <c r="A366">
         <v>400598</v>
       </c>
@@ -8340,7 +8340,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="367" spans="1:6">
+    <row r="367" hidden="1" spans="1:6">
       <c r="A367">
         <v>400000</v>
       </c>
@@ -8360,7 +8360,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="368" spans="1:6">
+    <row r="368" hidden="1" spans="1:6">
       <c r="A368">
         <v>400000</v>
       </c>
@@ -8380,7 +8380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="369" spans="1:6">
+    <row r="369" hidden="1" spans="1:6">
       <c r="A369">
         <v>400000</v>
       </c>
@@ -8400,7 +8400,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="370" spans="1:6">
+    <row r="370" hidden="1" spans="1:6">
       <c r="A370">
         <v>386418</v>
       </c>
@@ -8420,7 +8420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="371" spans="1:6">
+    <row r="371" hidden="1" spans="1:6">
       <c r="A371">
         <v>380000</v>
       </c>
@@ -8440,7 +8440,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="372" spans="1:6">
+    <row r="372" hidden="1" spans="1:6">
       <c r="A372">
         <v>380000</v>
       </c>
@@ -8460,7 +8460,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="373" spans="1:6">
+    <row r="373" hidden="1" spans="1:6">
       <c r="A373">
         <v>370000</v>
       </c>
@@ -8480,7 +8480,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="374" spans="1:6">
+    <row r="374" hidden="1" spans="1:6">
       <c r="A374">
         <v>364090</v>
       </c>
@@ -8500,7 +8500,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="375" spans="1:6">
+    <row r="375" hidden="1" spans="1:6">
       <c r="A375">
         <v>363459</v>
       </c>
@@ -8520,7 +8520,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="376" spans="1:6">
+    <row r="376" hidden="1" spans="1:6">
       <c r="A376">
         <v>363113</v>
       </c>
@@ -8540,7 +8540,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="377" spans="1:6">
+    <row r="377" hidden="1" spans="1:6">
       <c r="A377">
         <v>360956</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="378" spans="1:6">
+    <row r="378" hidden="1" spans="1:6">
       <c r="A378">
         <v>360000</v>
       </c>
@@ -8580,7 +8580,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="379" spans="1:6">
+    <row r="379" hidden="1" spans="1:6">
       <c r="A379">
         <v>355878</v>
       </c>
@@ -8600,7 +8600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="380" spans="1:6">
+    <row r="380" hidden="1" spans="1:6">
       <c r="A380">
         <v>351645</v>
       </c>
@@ -8620,7 +8620,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="381" spans="1:6">
+    <row r="381" hidden="1" spans="1:6">
       <c r="A381">
         <v>350001</v>
       </c>
@@ -8640,7 +8640,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="382" spans="1:6">
+    <row r="382" hidden="1" spans="1:6">
       <c r="A382">
         <v>350000</v>
       </c>
@@ -8660,7 +8660,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="383" spans="1:6">
+    <row r="383" hidden="1" spans="1:6">
       <c r="A383">
         <v>350000</v>
       </c>
@@ -8680,7 +8680,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="384" spans="1:6">
+    <row r="384" hidden="1" spans="1:6">
       <c r="A384">
         <v>350000</v>
       </c>
@@ -8700,7 +8700,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="385" spans="1:6">
+    <row r="385" hidden="1" spans="1:6">
       <c r="A385">
         <v>350000</v>
       </c>
@@ -8720,7 +8720,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="386" spans="1:6">
+    <row r="386" hidden="1" spans="1:6">
       <c r="A386">
         <v>350000</v>
       </c>
@@ -8740,7 +8740,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="387" spans="1:6">
+    <row r="387" hidden="1" spans="1:6">
       <c r="A387">
         <v>350000</v>
       </c>
@@ -8760,7 +8760,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="388" spans="1:6">
+    <row r="388" hidden="1" spans="1:6">
       <c r="A388">
         <v>346703</v>
       </c>
@@ -8780,7 +8780,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="389" spans="1:6">
+    <row r="389" hidden="1" spans="1:6">
       <c r="A389">
         <v>343046</v>
       </c>
@@ -8800,7 +8800,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="390" spans="1:6">
+    <row r="390" hidden="1" spans="1:6">
       <c r="A390">
         <v>337931</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="391" spans="1:6">
+    <row r="391" hidden="1" spans="1:6">
       <c r="A391">
         <v>334799</v>
       </c>
@@ -8840,7 +8840,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="392" spans="1:6">
+    <row r="392" hidden="1" spans="1:6">
       <c r="A392">
         <v>334285.714285714</v>
       </c>
@@ -8860,7 +8860,7 @@
         <v>1599</v>
       </c>
     </row>
-    <row r="393" spans="1:6">
+    <row r="393" hidden="1" spans="1:6">
       <c r="A393">
         <v>330158</v>
       </c>
@@ -8880,7 +8880,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="394" spans="1:6">
+    <row r="394" hidden="1" spans="1:6">
       <c r="A394">
         <v>324405</v>
       </c>
@@ -8900,7 +8900,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="395" spans="1:6">
+    <row r="395" hidden="1" spans="1:6">
       <c r="A395">
         <v>321637</v>
       </c>
@@ -8920,7 +8920,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="396" spans="1:6">
+    <row r="396" hidden="1" spans="1:6">
       <c r="A396">
         <v>320000</v>
       </c>
@@ -8940,7 +8940,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="397" spans="1:6">
+    <row r="397" hidden="1" spans="1:6">
       <c r="A397">
         <v>319866</v>
       </c>
@@ -8960,7 +8960,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="398" spans="1:6">
+    <row r="398" hidden="1" spans="1:6">
       <c r="A398">
         <v>314885</v>
       </c>
@@ -8980,7 +8980,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="399" spans="1:6">
+    <row r="399" hidden="1" spans="1:6">
       <c r="A399">
         <v>310000</v>
       </c>
@@ -9000,7 +9000,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="400" spans="1:6">
+    <row r="400" hidden="1" spans="1:6">
       <c r="A400">
         <v>310000</v>
       </c>
@@ -9020,7 +9020,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="401" spans="1:6">
+    <row r="401" hidden="1" spans="1:6">
       <c r="A401">
         <v>308987</v>
       </c>
@@ -9040,7 +9040,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="402" spans="1:6">
+    <row r="402" hidden="1" spans="1:6">
       <c r="A402">
         <v>306906</v>
       </c>
@@ -9060,7 +9060,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="403" spans="1:6">
+    <row r="403" hidden="1" spans="1:6">
       <c r="A403">
         <v>305941</v>
       </c>
@@ -9080,7 +9080,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="404" spans="1:6">
+    <row r="404" hidden="1" spans="1:6">
       <c r="A404">
         <v>305686</v>
       </c>
@@ -9100,7 +9100,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="405" spans="1:6">
+    <row r="405" hidden="1" spans="1:6">
       <c r="A405">
         <v>300000</v>
       </c>
@@ -9120,7 +9120,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="406" spans="1:6">
+    <row r="406" hidden="1" spans="1:6">
       <c r="A406">
         <v>300000</v>
       </c>
@@ -9140,7 +9140,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="407" spans="1:6">
+    <row r="407" hidden="1" spans="1:6">
       <c r="A407">
         <v>300000</v>
       </c>
@@ -9160,7 +9160,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="408" spans="1:6">
+    <row r="408" hidden="1" spans="1:6">
       <c r="A408">
         <v>300000</v>
       </c>
@@ -9180,7 +9180,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="409" spans="1:6">
+    <row r="409" hidden="1" spans="1:6">
       <c r="A409">
         <v>296006</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="410" spans="1:6">
+    <row r="410" hidden="1" spans="1:6">
       <c r="A410">
         <v>295645</v>
       </c>
@@ -9220,7 +9220,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="411" spans="1:6">
+    <row r="411" hidden="1" spans="1:6">
       <c r="A411">
         <v>290658</v>
       </c>
@@ -9240,7 +9240,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="412" spans="1:6">
+    <row r="412" hidden="1" spans="1:6">
       <c r="A412">
         <v>289619</v>
       </c>
@@ -9260,7 +9260,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="413" spans="1:6">
+    <row r="413" hidden="1" spans="1:6">
       <c r="A413">
         <v>283593</v>
       </c>
@@ -9280,7 +9280,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="414" spans="1:6">
+    <row r="414" hidden="1" spans="1:6">
       <c r="A414">
         <v>280490</v>
       </c>
@@ -9300,7 +9300,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="415" spans="1:6">
+    <row r="415" hidden="1" spans="1:6">
       <c r="A415">
         <v>279675</v>
       </c>
@@ -9320,7 +9320,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="416" spans="1:6">
+    <row r="416" hidden="1" spans="1:6">
       <c r="A416">
         <v>272986</v>
       </c>
@@ -9340,7 +9340,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="417" spans="1:6">
+    <row r="417" hidden="1" spans="1:6">
       <c r="A417">
         <v>270000</v>
       </c>
@@ -9360,7 +9360,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="418" spans="1:6">
+    <row r="418" hidden="1" spans="1:6">
       <c r="A418">
         <v>269998</v>
       </c>
@@ -9380,7 +9380,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="419" spans="1:6">
+    <row r="419" hidden="1" spans="1:6">
       <c r="A419">
         <v>267763</v>
       </c>
@@ -9400,7 +9400,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="420" spans="1:6">
+    <row r="420" hidden="1" spans="1:6">
       <c r="A420">
         <v>266902</v>
       </c>
@@ -9420,7 +9420,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="421" spans="1:6">
+    <row r="421" hidden="1" spans="1:6">
       <c r="A421">
         <v>265816</v>
       </c>
@@ -9440,7 +9440,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="422" spans="1:6">
+    <row r="422" hidden="1" spans="1:6">
       <c r="A422">
         <v>264285.714285714</v>
       </c>
@@ -9460,7 +9460,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="423" spans="1:6">
+    <row r="423" hidden="1" spans="1:6">
       <c r="A423">
         <v>260785</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="424" spans="1:6">
+    <row r="424" hidden="1" spans="1:6">
       <c r="A424">
         <v>257372</v>
       </c>
@@ -9500,7 +9500,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="425" spans="1:6">
+    <row r="425" hidden="1" spans="1:6">
       <c r="A425">
         <v>254152</v>
       </c>
@@ -9520,7 +9520,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="426" spans="1:6">
+    <row r="426" hidden="1" spans="1:6">
       <c r="A426">
         <v>252514</v>
       </c>
@@ -9540,7 +9540,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="427" spans="1:6">
+    <row r="427" hidden="1" spans="1:6">
       <c r="A427">
         <v>251428.571428571</v>
       </c>
@@ -9560,7 +9560,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="428" spans="1:6">
+    <row r="428" hidden="1" spans="1:6">
       <c r="A428">
         <v>250157</v>
       </c>
@@ -9580,7 +9580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="429" spans="1:6">
+    <row r="429" hidden="1" spans="1:6">
       <c r="A429">
         <v>250000</v>
       </c>
@@ -9600,7 +9600,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="430" spans="1:6">
+    <row r="430" hidden="1" spans="1:6">
       <c r="A430">
         <v>250000</v>
       </c>
@@ -9620,7 +9620,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="431" spans="1:6">
+    <row r="431" hidden="1" spans="1:6">
       <c r="A431">
         <v>250000</v>
       </c>
@@ -9640,7 +9640,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="432" spans="1:6">
+    <row r="432" hidden="1" spans="1:6">
       <c r="A432">
         <v>250000</v>
       </c>
@@ -9660,7 +9660,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="433" spans="1:6">
+    <row r="433" hidden="1" spans="1:6">
       <c r="A433">
         <v>250000</v>
       </c>
@@ -9680,7 +9680,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="434" spans="1:6">
+    <row r="434" hidden="1" spans="1:6">
       <c r="A434">
         <v>249349</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="435" spans="1:6">
+    <row r="435" hidden="1" spans="1:6">
       <c r="A435">
         <v>245299</v>
       </c>
@@ -9720,7 +9720,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="436" spans="1:6">
+    <row r="436" hidden="1" spans="1:6">
       <c r="A436">
         <v>244364</v>
       </c>
@@ -9740,7 +9740,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="437" spans="1:6">
+    <row r="437" hidden="1" spans="1:6">
       <c r="A437">
         <v>240554</v>
       </c>
@@ -9760,7 +9760,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="438" spans="1:6">
+    <row r="438" hidden="1" spans="1:6">
       <c r="A438">
         <v>240000</v>
       </c>
@@ -9780,7 +9780,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="439" spans="1:6">
+    <row r="439" hidden="1" spans="1:6">
       <c r="A439">
         <v>240000</v>
       </c>
@@ -9800,7 +9800,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="440" spans="1:6">
+    <row r="440" hidden="1" spans="1:6">
       <c r="A440">
         <v>234066</v>
       </c>
@@ -9820,7 +9820,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="441" spans="1:6">
+    <row r="441" hidden="1" spans="1:6">
       <c r="A441">
         <v>232259</v>
       </c>
@@ -9840,7 +9840,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="442" spans="1:6">
+    <row r="442" hidden="1" spans="1:6">
       <c r="A442">
         <v>231476</v>
       </c>
@@ -9860,7 +9860,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="443" spans="1:6">
+    <row r="443" hidden="1" spans="1:6">
       <c r="A443">
         <v>231014</v>
       </c>
@@ -9880,7 +9880,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="444" spans="1:6">
+    <row r="444" hidden="1" spans="1:6">
       <c r="A444">
         <v>230000</v>
       </c>
@@ -9900,7 +9900,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="445" spans="1:6">
+    <row r="445" hidden="1" spans="1:6">
       <c r="A445">
         <v>227897</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="446" spans="1:6">
+    <row r="446" hidden="1" spans="1:6">
       <c r="A446">
         <v>227034</v>
       </c>
@@ -9940,7 +9940,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="447" spans="1:6">
+    <row r="447" hidden="1" spans="1:6">
       <c r="A447">
         <v>226289</v>
       </c>
@@ -9960,7 +9960,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="448" spans="1:6">
+    <row r="448" hidden="1" spans="1:6">
       <c r="A448">
         <v>224856</v>
       </c>
@@ -9980,7 +9980,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="449" spans="1:6">
+    <row r="449" hidden="1" spans="1:6">
       <c r="A449">
         <v>224500</v>
       </c>
@@ -10000,7 +10000,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="450" spans="1:6">
+    <row r="450" hidden="1" spans="1:6">
       <c r="A450">
         <v>223000</v>
       </c>
@@ -10020,7 +10020,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="451" spans="1:6">
+    <row r="451" hidden="1" spans="1:6">
       <c r="A451">
         <v>222227</v>
       </c>
@@ -10040,7 +10040,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="452" spans="1:6">
+    <row r="452" hidden="1" spans="1:6">
       <c r="A452">
         <v>221231</v>
       </c>
@@ -10060,7 +10060,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="453" spans="1:6">
+    <row r="453" hidden="1" spans="1:6">
       <c r="A453">
         <v>220307</v>
       </c>
@@ -10080,7 +10080,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="454" spans="1:6">
+    <row r="454" hidden="1" spans="1:6">
       <c r="A454">
         <v>217097</v>
       </c>
@@ -10100,7 +10100,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="455" spans="1:6">
+    <row r="455" hidden="1" spans="1:6">
       <c r="A455">
         <v>216703</v>
       </c>
@@ -10120,7 +10120,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="456" spans="1:6">
+    <row r="456" hidden="1" spans="1:6">
       <c r="A456">
         <v>215330</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="457" spans="1:6">
+    <row r="457" hidden="1" spans="1:6">
       <c r="A457">
         <v>211874</v>
       </c>
@@ -10160,7 +10160,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="458" spans="1:6">
+    <row r="458" hidden="1" spans="1:6">
       <c r="A458">
         <v>211410</v>
       </c>
@@ -10180,7 +10180,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="459" spans="1:6">
+    <row r="459" hidden="1" spans="1:6">
       <c r="A459">
         <v>211191</v>
       </c>
@@ -10200,7 +10200,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="460" spans="1:6">
+    <row r="460" hidden="1" spans="1:6">
       <c r="A460">
         <v>210440</v>
       </c>
@@ -10220,7 +10220,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="461" spans="1:6">
+    <row r="461" hidden="1" spans="1:6">
       <c r="A461">
         <v>210000</v>
       </c>
@@ -10240,7 +10240,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="462" spans="1:6">
+    <row r="462" hidden="1" spans="1:6">
       <c r="A462">
         <v>209114</v>
       </c>
@@ -10260,7 +10260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="463" spans="1:6">
+    <row r="463" hidden="1" spans="1:6">
       <c r="A463">
         <v>208656</v>
       </c>
@@ -10280,7 +10280,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="464" spans="1:6">
+    <row r="464" hidden="1" spans="1:6">
       <c r="A464">
         <v>208032</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="465" spans="1:6">
+    <row r="465" hidden="1" spans="1:6">
       <c r="A465">
         <v>205359</v>
       </c>
@@ -10320,7 +10320,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="466" spans="1:6">
+    <row r="466" hidden="1" spans="1:6">
       <c r="A466">
         <v>204734</v>
       </c>
@@ -10340,7 +10340,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="467" spans="1:6">
+    <row r="467" hidden="1" spans="1:6">
       <c r="A467">
         <v>203867</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="468" spans="1:6">
+    <row r="468" hidden="1" spans="1:6">
       <c r="A468">
         <v>203501</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="469" spans="1:6">
+    <row r="469" hidden="1" spans="1:6">
       <c r="A469">
         <v>203211</v>
       </c>
@@ -10400,7 +10400,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="470" spans="1:6">
+    <row r="470" hidden="1" spans="1:6">
       <c r="A470">
         <v>201978</v>
       </c>
@@ -10420,7 +10420,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="471" spans="1:6">
+    <row r="471" hidden="1" spans="1:6">
       <c r="A471">
         <v>200623</v>
       </c>
@@ -10440,7 +10440,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="472" spans="1:6">
+    <row r="472" hidden="1" spans="1:6">
       <c r="A472">
         <v>200000</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="473" spans="1:6">
+    <row r="473" hidden="1" spans="1:6">
       <c r="A473">
         <v>200000</v>
       </c>
@@ -10480,7 +10480,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="474" spans="1:6">
+    <row r="474" hidden="1" spans="1:6">
       <c r="A474">
         <v>200000</v>
       </c>
@@ -10500,7 +10500,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="475" spans="1:6">
+    <row r="475" hidden="1" spans="1:6">
       <c r="A475">
         <v>200000</v>
       </c>
@@ -10520,7 +10520,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="476" spans="1:6">
+    <row r="476" hidden="1" spans="1:6">
       <c r="A476">
         <v>200000</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="477" spans="1:6">
+    <row r="477" hidden="1" spans="1:6">
       <c r="A477">
         <v>200000</v>
       </c>
@@ -10560,7 +10560,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="478" spans="1:6">
+    <row r="478" hidden="1" spans="1:6">
       <c r="A478">
         <v>200000</v>
       </c>
@@ -10580,7 +10580,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="479" spans="1:6">
+    <row r="479" hidden="1" spans="1:6">
       <c r="A479">
         <v>200000</v>
       </c>
@@ -10600,7 +10600,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="480" spans="1:6">
+    <row r="480" hidden="1" spans="1:6">
       <c r="A480">
         <v>197450</v>
       </c>
@@ -10620,7 +10620,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="481" spans="1:6">
+    <row r="481" hidden="1" spans="1:6">
       <c r="A481">
         <v>196982</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="482" spans="1:6">
+    <row r="482" hidden="1" spans="1:6">
       <c r="A482">
         <v>195708</v>
       </c>
@@ -10660,7 +10660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="483" spans="1:6">
+    <row r="483" hidden="1" spans="1:6">
       <c r="A483">
         <v>195389</v>
       </c>
@@ -10680,7 +10680,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="484" spans="1:6">
+    <row r="484" hidden="1" spans="1:6">
       <c r="A484">
         <v>193030</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="485" spans="1:6">
+    <row r="485" hidden="1" spans="1:6">
       <c r="A485">
         <v>192670</v>
       </c>
@@ -10720,7 +10720,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="486" spans="1:6">
+    <row r="486" hidden="1" spans="1:6">
       <c r="A486">
         <v>191401</v>
       </c>
@@ -10740,7 +10740,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="487" spans="1:6">
+    <row r="487" hidden="1" spans="1:6">
       <c r="A487">
         <v>190545</v>
       </c>
@@ -10760,7 +10760,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="488" spans="1:6">
+    <row r="488" hidden="1" spans="1:6">
       <c r="A488">
         <v>190000</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="489" spans="1:6">
+    <row r="489" hidden="1" spans="1:6">
       <c r="A489">
         <v>190000</v>
       </c>
@@ -10800,7 +10800,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="490" spans="1:6">
+    <row r="490" hidden="1" spans="1:6">
       <c r="A490">
         <v>189513</v>
       </c>
@@ -10820,7 +10820,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="491" spans="1:6">
+    <row r="491" hidden="1" spans="1:6">
       <c r="A491">
         <v>189415</v>
       </c>
@@ -10840,7 +10840,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="492" spans="1:6">
+    <row r="492" hidden="1" spans="1:6">
       <c r="A492">
         <v>189408</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="493" spans="1:6">
+    <row r="493" hidden="1" spans="1:6">
       <c r="A493">
         <v>186765</v>
       </c>
@@ -10880,7 +10880,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="494" spans="1:6">
+    <row r="494" hidden="1" spans="1:6">
       <c r="A494">
         <v>184404</v>
       </c>
@@ -10900,7 +10900,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="495" spans="1:6">
+    <row r="495" hidden="1" spans="1:6">
       <c r="A495">
         <v>183809</v>
       </c>
@@ -10920,7 +10920,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="496" spans="1:6">
+    <row r="496" hidden="1" spans="1:6">
       <c r="A496">
         <v>183744</v>
       </c>
@@ -10940,7 +10940,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="497" spans="1:6">
+    <row r="497" hidden="1" spans="1:6">
       <c r="A497">
         <v>183147</v>
       </c>
@@ -10960,7 +10960,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="498" spans="1:6">
+    <row r="498" hidden="1" spans="1:6">
       <c r="A498">
         <v>181671</v>
       </c>
@@ -10980,7 +10980,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="499" spans="1:6">
+    <row r="499" hidden="1" spans="1:6">
       <c r="A499">
         <v>181210</v>
       </c>
@@ -11000,7 +11000,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="500" spans="1:6">
+    <row r="500" hidden="1" spans="1:6">
       <c r="A500">
         <v>180587</v>
       </c>
@@ -11020,7 +11020,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="501" spans="1:6">
+    <row r="501" hidden="1" spans="1:6">
       <c r="A501">
         <v>180000</v>
       </c>
@@ -11040,7 +11040,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="502" spans="1:6">
+    <row r="502" hidden="1" spans="1:6">
       <c r="A502">
         <v>179750</v>
       </c>
@@ -11060,7 +11060,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="503" spans="1:6">
+    <row r="503" hidden="1" spans="1:6">
       <c r="A503">
         <v>179268</v>
       </c>
@@ -11080,7 +11080,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="504" spans="1:6">
+    <row r="504" hidden="1" spans="1:6">
       <c r="A504">
         <v>176242</v>
       </c>
@@ -11100,7 +11100,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="505" spans="1:6">
+    <row r="505" hidden="1" spans="1:6">
       <c r="A505">
         <v>174216</v>
       </c>
@@ -11120,7 +11120,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="506" spans="1:6">
+    <row r="506" hidden="1" spans="1:6">
       <c r="A506">
         <v>171616</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="507" spans="1:6">
+    <row r="507" hidden="1" spans="1:6">
       <c r="A507">
         <v>171576</v>
       </c>
@@ -11160,7 +11160,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="508" spans="1:6">
+    <row r="508" hidden="1" spans="1:6">
       <c r="A508">
         <v>171206</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="509" spans="1:6">
+    <row r="509" hidden="1" spans="1:6">
       <c r="A509">
         <v>170731</v>
       </c>
@@ -11200,7 +11200,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="510" spans="1:6">
+    <row r="510" hidden="1" spans="1:6">
       <c r="A510">
         <v>170000</v>
       </c>
@@ -11220,7 +11220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="511" spans="1:6">
+    <row r="511" hidden="1" spans="1:6">
       <c r="A511">
         <v>170000</v>
       </c>
@@ -11240,7 +11240,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="512" spans="1:6">
+    <row r="512" hidden="1" spans="1:6">
       <c r="A512">
         <v>168191</v>
       </c>
@@ -11260,7 +11260,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="513" spans="1:6">
+    <row r="513" hidden="1" spans="1:6">
       <c r="A513">
         <v>167728</v>
       </c>
@@ -11280,7 +11280,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="514" spans="1:6">
+    <row r="514" hidden="1" spans="1:6">
       <c r="A514">
         <v>167656</v>
       </c>
@@ -11300,7 +11300,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="515" spans="1:6">
+    <row r="515" hidden="1" spans="1:6">
       <c r="A515">
         <v>166666</v>
       </c>
@@ -11320,7 +11320,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="516" spans="1:6">
+    <row r="516" hidden="1" spans="1:6">
       <c r="A516">
         <v>163931</v>
       </c>
@@ -11340,7 +11340,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="517" spans="1:6">
+    <row r="517" hidden="1" spans="1:6">
       <c r="A517">
         <v>163754</v>
       </c>
@@ -11360,7 +11360,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="518" spans="1:6">
+    <row r="518" hidden="1" spans="1:6">
       <c r="A518">
         <v>161852</v>
       </c>
@@ -11380,7 +11380,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="519" spans="1:6">
+    <row r="519" hidden="1" spans="1:6">
       <c r="A519">
         <v>161824</v>
       </c>
@@ -11400,7 +11400,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="520" spans="1:6">
+    <row r="520" hidden="1" spans="1:6">
       <c r="A520">
         <v>160193</v>
       </c>
@@ -11420,7 +11420,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="521" spans="1:6">
+    <row r="521" hidden="1" spans="1:6">
       <c r="A521">
         <v>160000</v>
       </c>
@@ -11440,7 +11440,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="522" spans="1:6">
+    <row r="522" hidden="1" spans="1:6">
       <c r="A522">
         <v>160000</v>
       </c>
@@ -11460,7 +11460,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="523" spans="1:6">
+    <row r="523" hidden="1" spans="1:6">
       <c r="A523">
         <v>160000</v>
       </c>
@@ -11480,7 +11480,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="524" spans="1:6">
+    <row r="524" hidden="1" spans="1:6">
       <c r="A524">
         <v>160000</v>
       </c>
@@ -11500,7 +11500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="525" spans="1:6">
+    <row r="525" hidden="1" spans="1:6">
       <c r="A525">
         <v>158389</v>
       </c>
@@ -11520,7 +11520,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="526" spans="1:6">
+    <row r="526" hidden="1" spans="1:6">
       <c r="A526">
         <v>157469</v>
       </c>
@@ -11540,7 +11540,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="527" spans="1:6">
+    <row r="527" hidden="1" spans="1:6">
       <c r="A527">
         <v>156272</v>
       </c>
@@ -11560,7 +11560,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="528" spans="1:6">
+    <row r="528" hidden="1" spans="1:6">
       <c r="A528">
         <v>155024</v>
       </c>
@@ -11580,7 +11580,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="529" spans="1:6">
+    <row r="529" hidden="1" spans="1:6">
       <c r="A529">
         <v>154901</v>
       </c>
@@ -11600,7 +11600,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="530" spans="1:6">
+    <row r="530" hidden="1" spans="1:6">
       <c r="A530">
         <v>154523</v>
       </c>
@@ -11620,7 +11620,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="531" spans="1:6">
+    <row r="531" hidden="1" spans="1:6">
       <c r="A531">
         <v>152554</v>
       </c>
@@ -11640,7 +11640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="532" spans="1:6">
+    <row r="532" hidden="1" spans="1:6">
       <c r="A532">
         <v>151645</v>
       </c>
@@ -11660,7 +11660,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="533" spans="1:6">
+    <row r="533" hidden="1" spans="1:6">
       <c r="A533">
         <v>151459</v>
       </c>
@@ -11680,7 +11680,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="534" spans="1:6">
+    <row r="534" hidden="1" spans="1:6">
       <c r="A534">
         <v>150000</v>
       </c>
@@ -11700,7 +11700,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="535" spans="1:6">
+    <row r="535" hidden="1" spans="1:6">
       <c r="A535">
         <v>150000</v>
       </c>
@@ -11720,7 +11720,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="536" spans="1:6">
+    <row r="536" hidden="1" spans="1:6">
       <c r="A536">
         <v>150000</v>
       </c>
@@ -11740,7 +11740,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="537" spans="1:6">
+    <row r="537" hidden="1" spans="1:6">
       <c r="A537">
         <v>149712</v>
       </c>
@@ -11760,7 +11760,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="538" spans="1:6">
+    <row r="538" hidden="1" spans="1:6">
       <c r="A538">
         <v>146543</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="539" spans="1:6">
+    <row r="539" hidden="1" spans="1:6">
       <c r="A539">
         <v>146235</v>
       </c>
@@ -11800,7 +11800,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="540" spans="1:6">
+    <row r="540" hidden="1" spans="1:6">
       <c r="A540">
         <v>140000</v>
       </c>
@@ -11820,7 +11820,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="541" spans="1:6">
+    <row r="541" hidden="1" spans="1:6">
       <c r="A541">
         <v>140000</v>
       </c>
@@ -11840,7 +11840,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="542" spans="1:6">
+    <row r="542" hidden="1" spans="1:6">
       <c r="A542">
         <v>139426</v>
       </c>
@@ -11860,7 +11860,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="543" spans="1:6">
+    <row r="543" hidden="1" spans="1:6">
       <c r="A543">
         <v>139359</v>
       </c>
@@ -11880,7 +11880,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="544" spans="1:6">
+    <row r="544" hidden="1" spans="1:6">
       <c r="A544">
         <v>138895</v>
       </c>
@@ -11900,7 +11900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="545" spans="1:6">
+    <row r="545" hidden="1" spans="1:6">
       <c r="A545">
         <v>138534</v>
       </c>
@@ -11920,7 +11920,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="546" spans="1:6">
+    <row r="546" hidden="1" spans="1:6">
       <c r="A546">
         <v>137434</v>
       </c>
@@ -11940,7 +11940,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="547" spans="1:6">
+    <row r="547" hidden="1" spans="1:6">
       <c r="A547">
         <v>137144</v>
       </c>
@@ -11960,7 +11960,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="548" spans="1:6">
+    <row r="548" hidden="1" spans="1:6">
       <c r="A548">
         <v>137022</v>
       </c>
@@ -11980,7 +11980,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="549" spans="1:6">
+    <row r="549" hidden="1" spans="1:6">
       <c r="A549">
         <v>136473</v>
       </c>
@@ -12000,7 +12000,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="550" spans="1:6">
+    <row r="550" hidden="1" spans="1:6">
       <c r="A550">
         <v>133510</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="551" spans="1:6">
+    <row r="551" hidden="1" spans="1:6">
       <c r="A551">
         <v>130612</v>
       </c>
@@ -12040,7 +12040,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="552" spans="1:6">
+    <row r="552" hidden="1" spans="1:6">
       <c r="A552">
         <v>130000</v>
       </c>
@@ -12060,7 +12060,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="553" spans="1:6">
+    <row r="553" hidden="1" spans="1:6">
       <c r="A553">
         <v>130000</v>
       </c>
@@ -12080,7 +12080,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="554" spans="1:6">
+    <row r="554" hidden="1" spans="1:6">
       <c r="A554">
         <v>130000</v>
       </c>
@@ -12100,7 +12100,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="555" spans="1:6">
+    <row r="555" hidden="1" spans="1:6">
       <c r="A555">
         <v>129872</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="556" spans="1:6">
+    <row r="556" hidden="1" spans="1:6">
       <c r="A556">
         <v>129644</v>
       </c>
@@ -12140,7 +12140,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="557" spans="1:6">
+    <row r="557" hidden="1" spans="1:6">
       <c r="A557">
         <v>127734</v>
       </c>
@@ -12160,7 +12160,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="558" spans="1:6">
+    <row r="558" hidden="1" spans="1:6">
       <c r="A558">
         <v>125302</v>
       </c>
@@ -12180,7 +12180,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="559" spans="1:6">
+    <row r="559" hidden="1" spans="1:6">
       <c r="A559">
         <v>123994</v>
       </c>
@@ -12200,7 +12200,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="560" spans="1:6">
+    <row r="560" hidden="1" spans="1:6">
       <c r="A560">
         <v>123277</v>
       </c>
@@ -12220,7 +12220,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="561" spans="1:6">
+    <row r="561" hidden="1" spans="1:6">
       <c r="A561">
         <v>122039</v>
       </c>
@@ -12240,7 +12240,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="562" spans="1:6">
+    <row r="562" hidden="1" spans="1:6">
       <c r="A562">
         <v>121460</v>
       </c>
@@ -12260,7 +12260,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="563" spans="1:6">
+    <row r="563" hidden="1" spans="1:6">
       <c r="A563">
         <v>121344</v>
       </c>
@@ -12280,7 +12280,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="564" spans="1:6">
+    <row r="564" hidden="1" spans="1:6">
       <c r="A564">
         <v>120376</v>
       </c>
@@ -12300,7 +12300,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="565" spans="1:6">
+    <row r="565" hidden="1" spans="1:6">
       <c r="A565">
         <v>120000</v>
       </c>
@@ -12320,7 +12320,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="566" spans="1:6">
+    <row r="566" hidden="1" spans="1:6">
       <c r="A566">
         <v>120000</v>
       </c>
@@ -12340,7 +12340,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="567" spans="1:6">
+    <row r="567" hidden="1" spans="1:6">
       <c r="A567">
         <v>120000</v>
       </c>
@@ -12360,7 +12360,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="568" spans="1:6">
+    <row r="568" hidden="1" spans="1:6">
       <c r="A568">
         <v>120000</v>
       </c>
@@ -12380,7 +12380,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="569" spans="1:6">
+    <row r="569" hidden="1" spans="1:6">
       <c r="A569">
         <v>118976</v>
       </c>
@@ -12400,7 +12400,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="570" spans="1:6">
+    <row r="570" hidden="1" spans="1:6">
       <c r="A570">
         <v>117534</v>
       </c>
@@ -12420,7 +12420,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="571" spans="1:6">
+    <row r="571" hidden="1" spans="1:6">
       <c r="A571">
         <v>116064</v>
       </c>
@@ -12440,7 +12440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="572" spans="1:6">
+    <row r="572" hidden="1" spans="1:6">
       <c r="A572">
         <v>114826</v>
       </c>
@@ -12460,7 +12460,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="573" spans="1:6">
+    <row r="573" hidden="1" spans="1:6">
       <c r="A573">
         <v>114359</v>
       </c>
@@ -12480,7 +12480,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="574" spans="1:6">
+    <row r="574" hidden="1" spans="1:6">
       <c r="A574">
         <v>114116</v>
       </c>
@@ -12500,7 +12500,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="575" spans="1:6">
+    <row r="575" hidden="1" spans="1:6">
       <c r="A575">
         <v>112346</v>
       </c>
@@ -12520,7 +12520,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="576" spans="1:6">
+    <row r="576" hidden="1" spans="1:6">
       <c r="A576">
         <v>112235</v>
       </c>
@@ -12540,7 +12540,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="577" spans="1:6">
+    <row r="577" hidden="1" spans="1:6">
       <c r="A577">
         <v>110000</v>
       </c>
@@ -12560,7 +12560,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="578" spans="1:6">
+    <row r="578" hidden="1" spans="1:6">
       <c r="A578">
         <v>108610</v>
       </c>
@@ -12580,7 +12580,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="579" spans="1:6">
+    <row r="579" hidden="1" spans="1:6">
       <c r="A579">
         <v>108601</v>
       </c>
@@ -12600,7 +12600,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="580" spans="1:6">
+    <row r="580" hidden="1" spans="1:6">
       <c r="A580">
         <v>106207</v>
       </c>
@@ -12620,7 +12620,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="581" spans="1:6">
+    <row r="581" hidden="1" spans="1:6">
       <c r="A581">
         <v>105319</v>
       </c>
@@ -12640,7 +12640,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="582" spans="1:6">
+    <row r="582" hidden="1" spans="1:6">
       <c r="A582">
         <v>103984</v>
       </c>
@@ -12660,7 +12660,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="583" spans="1:6">
+    <row r="583" hidden="1" spans="1:6">
       <c r="A583">
         <v>103873</v>
       </c>
@@ -12680,7 +12680,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="584" spans="1:6">
+    <row r="584" hidden="1" spans="1:6">
       <c r="A584">
         <v>103651</v>
       </c>
@@ -12700,7 +12700,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="585" spans="1:6">
+    <row r="585" hidden="1" spans="1:6">
       <c r="A585">
         <v>103074</v>
       </c>
@@ -12720,7 +12720,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="586" spans="1:6">
+    <row r="586" hidden="1" spans="1:6">
       <c r="A586">
         <v>102656</v>
       </c>
@@ -12740,7 +12740,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="587" spans="1:6">
+    <row r="587" hidden="1" spans="1:6">
       <c r="A587">
         <v>102014</v>
       </c>
@@ -12760,7 +12760,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="588" spans="1:6">
+    <row r="588" hidden="1" spans="1:6">
       <c r="A588">
         <v>101857</v>
       </c>
@@ -12780,7 +12780,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="589" spans="1:6">
+    <row r="589" hidden="1" spans="1:6">
       <c r="A589">
         <v>100395</v>
       </c>
@@ -12800,7 +12800,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="590" spans="1:6">
+    <row r="590" hidden="1" spans="1:6">
       <c r="A590">
         <v>100000</v>
       </c>
@@ -12820,7 +12820,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="591" spans="1:6">
+    <row r="591" hidden="1" spans="1:6">
       <c r="A591">
         <v>100000</v>
       </c>
@@ -12840,7 +12840,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="592" spans="1:6">
+    <row r="592" hidden="1" spans="1:6">
       <c r="A592">
         <v>100000</v>
       </c>
@@ -12860,7 +12860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="593" spans="1:6">
+    <row r="593" hidden="1" spans="1:6">
       <c r="A593">
         <v>100000</v>
       </c>
@@ -12880,7 +12880,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="594" spans="1:6">
+    <row r="594" hidden="1" spans="1:6">
       <c r="A594">
         <v>100000</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="595" spans="1:6">
+    <row r="595" hidden="1" spans="1:6">
       <c r="A595">
         <v>100000</v>
       </c>
@@ -12920,7 +12920,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="596" spans="1:6">
+    <row r="596" hidden="1" spans="1:6">
       <c r="A596">
         <v>100000</v>
       </c>
@@ -12940,7 +12940,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="597" spans="1:6">
+    <row r="597" hidden="1" spans="1:6">
       <c r="A597">
         <v>100000</v>
       </c>
@@ -12960,7 +12960,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="598" spans="1:6">
+    <row r="598" hidden="1" spans="1:6">
       <c r="A598">
         <v>100000</v>
       </c>
@@ -12980,7 +12980,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="599" spans="1:6">
+    <row r="599" hidden="1" spans="1:6">
       <c r="A599">
         <v>100000</v>
       </c>
@@ -13000,7 +13000,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="600" spans="1:6">
+    <row r="600" hidden="1" spans="1:6">
       <c r="A600">
         <v>100000</v>
       </c>
@@ -13020,7 +13020,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="601" spans="1:6">
+    <row r="601" hidden="1" spans="1:6">
       <c r="A601">
         <v>100000</v>
       </c>
@@ -13040,7 +13040,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="602" spans="1:6">
+    <row r="602" hidden="1" spans="1:6">
       <c r="A602">
         <v>100000</v>
       </c>
@@ -13060,7 +13060,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="603" spans="1:6">
+    <row r="603" hidden="1" spans="1:6">
       <c r="A603">
         <v>100000</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="604" spans="1:6">
+    <row r="604" hidden="1" spans="1:6">
       <c r="A604">
         <v>98179</v>
       </c>
@@ -13100,7 +13100,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="605" spans="1:6">
+    <row r="605" hidden="1" spans="1:6">
       <c r="A605">
         <v>97796</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="606" spans="1:6">
+    <row r="606" hidden="1" spans="1:6">
       <c r="A606">
         <v>97000</v>
       </c>
@@ -13140,7 +13140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="607" spans="1:6">
+    <row r="607" hidden="1" spans="1:6">
       <c r="A607">
         <v>96765.5555555555</v>
       </c>
@@ -13160,7 +13160,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="608" spans="1:6">
+    <row r="608" hidden="1" spans="1:6">
       <c r="A608">
         <v>96283</v>
       </c>
@@ -13180,7 +13180,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="609" spans="1:6">
+    <row r="609" hidden="1" spans="1:6">
       <c r="A609">
         <v>96114</v>
       </c>
@@ -13200,7 +13200,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="610" spans="1:6">
+    <row r="610" hidden="1" spans="1:6">
       <c r="A610">
         <v>95557</v>
       </c>
@@ -13220,7 +13220,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="611" spans="1:6">
+    <row r="611" hidden="1" spans="1:6">
       <c r="A611">
         <v>95000</v>
       </c>
@@ -13240,7 +13240,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="612" spans="1:6">
+    <row r="612" hidden="1" spans="1:6">
       <c r="A612">
         <v>95000</v>
       </c>
@@ -13260,7 +13260,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="613" spans="1:6">
+    <row r="613" hidden="1" spans="1:6">
       <c r="A613">
         <v>92537</v>
       </c>
@@ -13280,7 +13280,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="614" spans="1:6">
+    <row r="614" hidden="1" spans="1:6">
       <c r="A614">
         <v>91947</v>
       </c>
@@ -13300,7 +13300,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="615" spans="1:6">
+    <row r="615" hidden="1" spans="1:6">
       <c r="A615">
         <v>91301</v>
       </c>
@@ -13320,7 +13320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="616" spans="1:6">
+    <row r="616" hidden="1" spans="1:6">
       <c r="A616">
         <v>91287</v>
       </c>
@@ -13340,7 +13340,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="617" spans="1:6">
+    <row r="617" hidden="1" spans="1:6">
       <c r="A617">
         <v>91000</v>
       </c>
@@ -13360,7 +13360,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="618" spans="1:6">
+    <row r="618" hidden="1" spans="1:6">
       <c r="A618">
         <v>90750</v>
       </c>
@@ -13380,7 +13380,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="619" spans="1:6">
+    <row r="619" hidden="1" spans="1:6">
       <c r="A619">
         <v>90685</v>
       </c>
@@ -13400,7 +13400,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="620" spans="1:6">
+    <row r="620" hidden="1" spans="1:6">
       <c r="A620">
         <v>90572</v>
       </c>
@@ -13420,7 +13420,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="621" spans="1:6">
+    <row r="621" hidden="1" spans="1:6">
       <c r="A621">
         <v>90000</v>
       </c>
@@ -13440,7 +13440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="622" spans="1:6">
+    <row r="622" hidden="1" spans="1:6">
       <c r="A622">
         <v>89221</v>
       </c>
@@ -13460,7 +13460,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="623" spans="1:6">
+    <row r="623" hidden="1" spans="1:6">
       <c r="A623">
         <v>88976</v>
       </c>
@@ -13480,7 +13480,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="624" spans="1:6">
+    <row r="624" hidden="1" spans="1:6">
       <c r="A624">
         <v>88829</v>
       </c>
@@ -13500,7 +13500,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="625" spans="1:6">
+    <row r="625" hidden="1" spans="1:6">
       <c r="A625">
         <v>87217</v>
       </c>
@@ -13520,7 +13520,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="626" spans="1:6">
+    <row r="626" hidden="1" spans="1:6">
       <c r="A626">
         <v>87152</v>
       </c>
@@ -13540,7 +13540,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="627" spans="1:6">
+    <row r="627" hidden="1" spans="1:6">
       <c r="A627">
         <v>87019</v>
       </c>
@@ -13560,7 +13560,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="628" spans="1:6">
+    <row r="628" hidden="1" spans="1:6">
       <c r="A628">
         <v>86204</v>
       </c>
@@ -13580,7 +13580,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="629" spans="1:6">
+    <row r="629" hidden="1" spans="1:6">
       <c r="A629">
         <v>85901</v>
       </c>
@@ -13600,7 +13600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="630" spans="1:6">
+    <row r="630" hidden="1" spans="1:6">
       <c r="A630">
         <v>85573</v>
       </c>
@@ -13620,7 +13620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="631" spans="1:6">
+    <row r="631" hidden="1" spans="1:6">
       <c r="A631">
         <v>85000</v>
       </c>
@@ -13640,7 +13640,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="632" spans="1:6">
+    <row r="632" hidden="1" spans="1:6">
       <c r="A632">
         <v>84620</v>
       </c>
@@ -13660,7 +13660,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="633" spans="1:6">
+    <row r="633" hidden="1" spans="1:6">
       <c r="A633">
         <v>84513</v>
       </c>
@@ -13680,7 +13680,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="634" spans="1:6">
+    <row r="634" hidden="1" spans="1:6">
       <c r="A634">
         <v>84014</v>
       </c>
@@ -13700,7 +13700,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="635" spans="1:6">
+    <row r="635" hidden="1" spans="1:6">
       <c r="A635">
         <v>83551</v>
       </c>
@@ -13720,7 +13720,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="636" spans="1:6">
+    <row r="636" hidden="1" spans="1:6">
       <c r="A636">
         <v>81722</v>
       </c>
@@ -13740,7 +13740,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="637" spans="1:6">
+    <row r="637" hidden="1" spans="1:6">
       <c r="A637">
         <v>80154</v>
       </c>
@@ -13760,7 +13760,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="638" spans="1:6">
+    <row r="638" hidden="1" spans="1:6">
       <c r="A638">
         <v>79925</v>
       </c>
@@ -13780,7 +13780,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="639" spans="1:6">
+    <row r="639" hidden="1" spans="1:6">
       <c r="A639">
         <v>79625</v>
       </c>
@@ -13800,7 +13800,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="640" spans="1:6">
+    <row r="640" hidden="1" spans="1:6">
       <c r="A640">
         <v>79276</v>
       </c>
@@ -13820,7 +13820,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="641" spans="1:6">
+    <row r="641" hidden="1" spans="1:6">
       <c r="A641">
         <v>79000</v>
       </c>
@@ -13840,7 +13840,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="642" spans="1:6">
+    <row r="642" hidden="1" spans="1:6">
       <c r="A642">
         <v>76662</v>
       </c>
@@ -13860,7 +13860,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="643" spans="1:6">
+    <row r="643" hidden="1" spans="1:6">
       <c r="A643">
         <v>76576</v>
       </c>
@@ -13880,7 +13880,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="644" spans="1:6">
+    <row r="644" hidden="1" spans="1:6">
       <c r="A644">
         <v>75165</v>
       </c>
@@ -13900,7 +13900,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="645" spans="1:6">
+    <row r="645" hidden="1" spans="1:6">
       <c r="A645">
         <v>74884</v>
       </c>
@@ -13920,7 +13920,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="646" spans="1:6">
+    <row r="646" hidden="1" spans="1:6">
       <c r="A646">
         <v>73841</v>
       </c>
@@ -13940,7 +13940,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="647" spans="1:6">
+    <row r="647" hidden="1" spans="1:6">
       <c r="A647">
         <v>73833</v>
       </c>
@@ -13960,7 +13960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="648" spans="1:6">
+    <row r="648" hidden="1" spans="1:6">
       <c r="A648">
         <v>73734</v>
       </c>
@@ -13980,7 +13980,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="649" spans="1:6">
+    <row r="649" hidden="1" spans="1:6">
       <c r="A649">
         <v>73251</v>
       </c>
@@ -14000,7 +14000,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="650" spans="1:6">
+    <row r="650" hidden="1" spans="1:6">
       <c r="A650">
         <v>72720</v>
       </c>
@@ -14020,7 +14020,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="651" spans="1:6">
+    <row r="651" hidden="1" spans="1:6">
       <c r="A651">
         <v>72321</v>
       </c>
@@ -14040,7 +14040,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="652" spans="1:6">
+    <row r="652" hidden="1" spans="1:6">
       <c r="A652">
         <v>71974</v>
       </c>
@@ -14060,7 +14060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="653" spans="1:6">
+    <row r="653" hidden="1" spans="1:6">
       <c r="A653">
         <v>71209</v>
       </c>
@@ -14080,7 +14080,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="654" spans="1:6">
+    <row r="654" hidden="1" spans="1:6">
       <c r="A654">
         <v>71175</v>
       </c>
@@ -14100,7 +14100,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="655" spans="1:6">
+    <row r="655" hidden="1" spans="1:6">
       <c r="A655">
         <v>71146</v>
       </c>
@@ -14120,7 +14120,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="656" spans="1:6">
+    <row r="656" hidden="1" spans="1:6">
       <c r="A656">
         <v>70431</v>
       </c>
@@ -14140,7 +14140,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="657" spans="1:6">
+    <row r="657" hidden="1" spans="1:6">
       <c r="A657">
         <v>69530</v>
       </c>
@@ -14160,7 +14160,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="658" spans="1:6">
+    <row r="658" hidden="1" spans="1:6">
       <c r="A658">
         <v>69255</v>
       </c>
@@ -14180,7 +14180,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="659" spans="1:6">
+    <row r="659" hidden="1" spans="1:6">
       <c r="A659">
         <v>68424</v>
       </c>
@@ -14200,7 +14200,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="660" spans="1:6">
+    <row r="660" hidden="1" spans="1:6">
       <c r="A660">
         <v>67316</v>
       </c>
@@ -14220,7 +14220,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="661" spans="1:6">
+    <row r="661" hidden="1" spans="1:6">
       <c r="A661">
         <v>67000</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="662" spans="1:6">
+    <row r="662" hidden="1" spans="1:6">
       <c r="A662">
         <v>66929</v>
       </c>
@@ -14260,7 +14260,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="663" spans="1:6">
+    <row r="663" hidden="1" spans="1:6">
       <c r="A663">
         <v>66897</v>
       </c>
@@ -14280,7 +14280,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="664" spans="1:6">
+    <row r="664" hidden="1" spans="1:6">
       <c r="A664">
         <v>66546</v>
       </c>
@@ -14300,7 +14300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="665" spans="1:6">
+    <row r="665" hidden="1" spans="1:6">
       <c r="A665">
         <v>66375</v>
       </c>
@@ -14320,7 +14320,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="666" spans="1:6">
+    <row r="666" hidden="1" spans="1:6">
       <c r="A666">
         <v>66332</v>
       </c>
@@ -14340,7 +14340,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="667" spans="1:6">
+    <row r="667" hidden="1" spans="1:6">
       <c r="A667">
         <v>66045</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="668" spans="1:6">
+    <row r="668" hidden="1" spans="1:6">
       <c r="A668">
         <v>66040</v>
       </c>
@@ -14380,7 +14380,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="669" spans="1:6">
+    <row r="669" hidden="1" spans="1:6">
       <c r="A669">
         <v>65634</v>
       </c>
@@ -14400,7 +14400,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="670" spans="1:6">
+    <row r="670" hidden="1" spans="1:6">
       <c r="A670">
         <v>65065</v>
       </c>
@@ -14420,7 +14420,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="671" spans="1:6">
+    <row r="671" hidden="1" spans="1:6">
       <c r="A671">
         <v>65019</v>
       </c>
@@ -14440,7 +14440,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="672" spans="1:6">
+    <row r="672" hidden="1" spans="1:6">
       <c r="A672">
         <v>64735</v>
       </c>
@@ -14460,7 +14460,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="673" spans="1:6">
+    <row r="673" hidden="1" spans="1:6">
       <c r="A673">
         <v>63745</v>
       </c>
@@ -14480,7 +14480,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="674" spans="1:6">
+    <row r="674" hidden="1" spans="1:6">
       <c r="A674">
         <v>63000</v>
       </c>
@@ -14500,7 +14500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="675" spans="1:6">
+    <row r="675" hidden="1" spans="1:6">
       <c r="A675">
         <v>62365</v>
       </c>
@@ -14520,7 +14520,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="676" spans="1:6">
+    <row r="676" hidden="1" spans="1:6">
       <c r="A676">
         <v>62348</v>
       </c>
@@ -14540,7 +14540,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="677" spans="1:6">
+    <row r="677" hidden="1" spans="1:6">
       <c r="A677">
         <v>62085</v>
       </c>
@@ -14560,7 +14560,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="678" spans="1:6">
+    <row r="678" hidden="1" spans="1:6">
       <c r="A678">
         <v>61903</v>
       </c>
@@ -14580,7 +14580,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="679" spans="1:6">
+    <row r="679" hidden="1" spans="1:6">
       <c r="A679">
         <v>61729</v>
       </c>
@@ -14600,7 +14600,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="680" spans="1:6">
+    <row r="680" hidden="1" spans="1:6">
       <c r="A680">
         <v>60000</v>
       </c>
@@ -14620,7 +14620,7 @@
         <v>933</v>
       </c>
     </row>
-    <row r="681" spans="1:6">
+    <row r="681" hidden="1" spans="1:6">
       <c r="A681">
         <v>59942</v>
       </c>
@@ -14640,7 +14640,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="682" spans="1:6">
+    <row r="682" hidden="1" spans="1:6">
       <c r="A682">
         <v>59822</v>
       </c>
@@ -14660,7 +14660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="683" spans="1:6">
+    <row r="683" hidden="1" spans="1:6">
       <c r="A683">
         <v>59676</v>
       </c>
@@ -14680,7 +14680,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="684" spans="1:6">
+    <row r="684" hidden="1" spans="1:6">
       <c r="A684">
         <v>59586</v>
       </c>
@@ -14700,7 +14700,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="685" spans="1:6">
+    <row r="685" hidden="1" spans="1:6">
       <c r="A685">
         <v>59295</v>
       </c>
@@ -14720,7 +14720,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="686" spans="1:6">
+    <row r="686" hidden="1" spans="1:6">
       <c r="A686">
         <v>58523</v>
       </c>
@@ -14740,7 +14740,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="687" spans="1:6">
+    <row r="687" hidden="1" spans="1:6">
       <c r="A687">
         <v>57511</v>
       </c>
@@ -14760,7 +14760,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="688" spans="1:6">
+    <row r="688" hidden="1" spans="1:6">
       <c r="A688">
         <v>57000</v>
       </c>
@@ -14780,7 +14780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="689" spans="1:6">
+    <row r="689" hidden="1" spans="1:6">
       <c r="A689">
         <v>56854</v>
       </c>
@@ -14800,7 +14800,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="690" spans="1:6">
+    <row r="690" hidden="1" spans="1:6">
       <c r="A690">
         <v>56447</v>
       </c>
@@ -14820,7 +14820,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="691" spans="1:6">
+    <row r="691" hidden="1" spans="1:6">
       <c r="A691">
         <v>55987</v>
       </c>
@@ -14840,7 +14840,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="692" spans="1:6">
+    <row r="692" hidden="1" spans="1:6">
       <c r="A692">
         <v>55442</v>
       </c>
@@ -14860,7 +14860,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="693" spans="1:6">
+    <row r="693" hidden="1" spans="1:6">
       <c r="A693">
         <v>55156</v>
       </c>
@@ -14880,7 +14880,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="694" spans="1:6">
+    <row r="694" hidden="1" spans="1:6">
       <c r="A694">
         <v>54489</v>
       </c>
@@ -14900,7 +14900,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="695" spans="1:6">
+    <row r="695" hidden="1" spans="1:6">
       <c r="A695">
         <v>54081</v>
       </c>
@@ -14920,7 +14920,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="696" spans="1:6">
+    <row r="696" hidden="1" spans="1:6">
       <c r="A696">
         <v>53976</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="697" spans="1:6">
+    <row r="697" hidden="1" spans="1:6">
       <c r="A697">
         <v>52272</v>
       </c>
@@ -14960,7 +14960,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="698" spans="1:6">
+    <row r="698" hidden="1" spans="1:6">
       <c r="A698">
         <v>52000</v>
       </c>
@@ -14980,7 +14980,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="699" spans="1:6">
+    <row r="699" hidden="1" spans="1:6">
       <c r="A699">
         <v>51834</v>
       </c>
@@ -15000,7 +15000,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="700" spans="1:6">
+    <row r="700" hidden="1" spans="1:6">
       <c r="A700">
         <v>50924</v>
       </c>
@@ -15020,7 +15020,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="701" spans="1:6">
+    <row r="701" hidden="1" spans="1:6">
       <c r="A701">
         <v>50619</v>
       </c>
@@ -15040,7 +15040,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="702" spans="1:6">
+    <row r="702" hidden="1" spans="1:6">
       <c r="A702">
         <v>50500</v>
       </c>
@@ -15060,7 +15060,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="703" spans="1:6">
+    <row r="703" hidden="1" spans="1:6">
       <c r="A703">
         <v>50476</v>
       </c>
@@ -15080,7 +15080,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="704" spans="1:6">
+    <row r="704" hidden="1" spans="1:6">
       <c r="A704">
         <v>50402</v>
       </c>
@@ -15100,7 +15100,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="705" spans="1:6">
+    <row r="705" hidden="1" spans="1:6">
       <c r="A705">
         <v>50000</v>
       </c>
@@ -15120,7 +15120,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="706" spans="1:6">
+    <row r="706" hidden="1" spans="1:6">
       <c r="A706">
         <v>50000</v>
       </c>
@@ -15140,7 +15140,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="707" spans="1:6">
+    <row r="707" hidden="1" spans="1:6">
       <c r="A707">
         <v>50000</v>
       </c>
@@ -15160,7 +15160,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="708" spans="1:6">
+    <row r="708" hidden="1" spans="1:6">
       <c r="A708">
         <v>49953</v>
       </c>
@@ -15180,7 +15180,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="709" spans="1:6">
+    <row r="709" hidden="1" spans="1:6">
       <c r="A709">
         <v>49640</v>
       </c>
@@ -15200,7 +15200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="710" spans="1:6">
+    <row r="710" hidden="1" spans="1:6">
       <c r="A710">
         <v>49531</v>
       </c>
@@ -15220,7 +15220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="711" spans="1:6">
+    <row r="711" hidden="1" spans="1:6">
       <c r="A711">
         <v>49328</v>
       </c>
@@ -15240,7 +15240,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="712" spans="1:6">
+    <row r="712" hidden="1" spans="1:6">
       <c r="A712">
         <v>49146</v>
       </c>
@@ -15260,7 +15260,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="713" spans="1:6">
+    <row r="713" hidden="1" spans="1:6">
       <c r="A713">
         <v>48881</v>
       </c>
@@ -15280,7 +15280,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="714" spans="1:6">
+    <row r="714" hidden="1" spans="1:6">
       <c r="A714">
         <v>48027</v>
       </c>
@@ -15300,7 +15300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="715" spans="1:6">
+    <row r="715" hidden="1" spans="1:6">
       <c r="A715">
         <v>48000</v>
       </c>
@@ -15320,7 +15320,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="716" spans="1:6">
+    <row r="716" hidden="1" spans="1:6">
       <c r="A716">
         <v>47858</v>
       </c>
@@ -15340,7 +15340,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="717" spans="1:6">
+    <row r="717" hidden="1" spans="1:6">
       <c r="A717">
         <v>47619</v>
       </c>
@@ -15360,7 +15360,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="718" spans="1:6">
+    <row r="718" hidden="1" spans="1:6">
       <c r="A718">
         <v>47422</v>
       </c>
@@ -15380,7 +15380,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="719" spans="1:6">
+    <row r="719" hidden="1" spans="1:6">
       <c r="A719">
         <v>47000</v>
       </c>
@@ -15400,7 +15400,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="720" spans="1:6">
+    <row r="720" hidden="1" spans="1:6">
       <c r="A720">
         <v>46979</v>
       </c>
@@ -15420,7 +15420,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="721" spans="1:6">
+    <row r="721" hidden="1" spans="1:6">
       <c r="A721">
         <v>46298</v>
       </c>
@@ -15440,7 +15440,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="722" spans="1:6">
+    <row r="722" hidden="1" spans="1:6">
       <c r="A722">
         <v>45719</v>
       </c>
@@ -15460,7 +15460,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="723" spans="1:6">
+    <row r="723" hidden="1" spans="1:6">
       <c r="A723">
         <v>44801</v>
       </c>
@@ -15480,7 +15480,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="724" spans="1:6">
+    <row r="724" hidden="1" spans="1:6">
       <c r="A724">
         <v>44680</v>
       </c>
@@ -15500,7 +15500,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="725" spans="1:6">
+    <row r="725" hidden="1" spans="1:6">
       <c r="A725">
         <v>43746</v>
       </c>
@@ -15520,7 +15520,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="726" spans="1:6">
+    <row r="726" hidden="1" spans="1:6">
       <c r="A726">
         <v>42031</v>
       </c>
@@ -15540,7 +15540,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="727" spans="1:6">
+    <row r="727" hidden="1" spans="1:6">
       <c r="A727">
         <v>41954</v>
       </c>
@@ -15560,7 +15560,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="728" spans="1:6">
+    <row r="728" hidden="1" spans="1:6">
       <c r="A728">
         <v>41818</v>
       </c>
@@ -15580,7 +15580,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="729" spans="1:6">
+    <row r="729" hidden="1" spans="1:6">
       <c r="A729">
         <v>41411</v>
       </c>
@@ -15600,7 +15600,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="730" spans="1:6">
+    <row r="730" hidden="1" spans="1:6">
       <c r="A730">
         <v>41216</v>
       </c>
@@ -15620,7 +15620,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="731" spans="1:6">
+    <row r="731" hidden="1" spans="1:6">
       <c r="A731">
         <v>41186</v>
       </c>
@@ -15640,7 +15640,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="732" spans="1:6">
+    <row r="732" hidden="1" spans="1:6">
       <c r="A732">
         <v>40472</v>
       </c>
@@ -15660,7 +15660,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="733" spans="1:6">
+    <row r="733" hidden="1" spans="1:6">
       <c r="A733">
         <v>40365</v>
       </c>
@@ -15680,7 +15680,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="734" spans="1:6">
+    <row r="734" hidden="1" spans="1:6">
       <c r="A734">
         <v>40000</v>
       </c>
@@ -15700,7 +15700,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="735" spans="1:6">
+    <row r="735" hidden="1" spans="1:6">
       <c r="A735">
         <v>39748</v>
       </c>
@@ -15720,7 +15720,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="736" spans="1:6">
+    <row r="736" hidden="1" spans="1:6">
       <c r="A736">
         <v>39000</v>
       </c>
@@ -15740,7 +15740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="737" spans="1:6">
+    <row r="737" hidden="1" spans="1:6">
       <c r="A737">
         <v>38487</v>
       </c>
@@ -15760,7 +15760,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="738" spans="1:6">
+    <row r="738" hidden="1" spans="1:6">
       <c r="A738">
         <v>38018</v>
       </c>
@@ -15780,7 +15780,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="739" spans="1:6">
+    <row r="739" hidden="1" spans="1:6">
       <c r="A739">
         <v>37625</v>
       </c>
@@ -15800,7 +15800,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="740" spans="1:6">
+    <row r="740" hidden="1" spans="1:6">
       <c r="A740">
         <v>36837</v>
       </c>
@@ -15820,7 +15820,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="741" spans="1:6">
+    <row r="741" hidden="1" spans="1:6">
       <c r="A741">
         <v>36665</v>
       </c>
@@ -15840,7 +15840,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="742" spans="1:6">
+    <row r="742" hidden="1" spans="1:6">
       <c r="A742">
         <v>35901</v>
       </c>
@@ -15860,7 +15860,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="743" spans="1:6">
+    <row r="743" hidden="1" spans="1:6">
       <c r="A743">
         <v>34841</v>
       </c>
@@ -15880,7 +15880,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="744" spans="1:6">
+    <row r="744" hidden="1" spans="1:6">
       <c r="A744">
         <v>33903</v>
       </c>
@@ -15900,7 +15900,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="745" spans="1:6">
+    <row r="745" hidden="1" spans="1:6">
       <c r="A745">
         <v>33291</v>
       </c>
@@ -15920,7 +15920,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="746" spans="1:6">
+    <row r="746" hidden="1" spans="1:6">
       <c r="A746">
         <v>32942</v>
       </c>
@@ -15940,7 +15940,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="747" spans="1:6">
+    <row r="747" hidden="1" spans="1:6">
       <c r="A747">
         <v>32916</v>
       </c>
@@ -15960,7 +15960,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="748" spans="1:6">
+    <row r="748" hidden="1" spans="1:6">
       <c r="A748">
         <v>32717</v>
       </c>
@@ -15980,7 +15980,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="749" spans="1:6">
+    <row r="749" hidden="1" spans="1:6">
       <c r="A749">
         <v>32452</v>
       </c>
@@ -16000,7 +16000,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="750" spans="1:6">
+    <row r="750" hidden="1" spans="1:6">
       <c r="A750">
         <v>32402</v>
       </c>
@@ -16020,7 +16020,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="751" spans="1:6">
+    <row r="751" hidden="1" spans="1:6">
       <c r="A751">
         <v>32221</v>
       </c>
@@ -16040,7 +16040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="752" spans="1:6">
+    <row r="752" hidden="1" spans="1:6">
       <c r="A752">
         <v>32033</v>
       </c>
@@ -16060,7 +16060,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="753" spans="1:6">
+    <row r="753" hidden="1" spans="1:6">
       <c r="A753">
         <v>32000</v>
       </c>
@@ -16080,7 +16080,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="754" spans="1:6">
+    <row r="754" hidden="1" spans="1:6">
       <c r="A754">
         <v>31632</v>
       </c>
@@ -16100,7 +16100,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="755" spans="1:6">
+    <row r="755" hidden="1" spans="1:6">
       <c r="A755">
         <v>31258</v>
       </c>
@@ -16120,7 +16120,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="756" spans="1:6">
+    <row r="756" hidden="1" spans="1:6">
       <c r="A756">
         <v>31114</v>
       </c>
@@ -16140,7 +16140,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="757" spans="1:6">
+    <row r="757" hidden="1" spans="1:6">
       <c r="A757">
         <v>31002</v>
       </c>
@@ -16160,7 +16160,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="758" spans="1:6">
+    <row r="758" hidden="1" spans="1:6">
       <c r="A758">
         <v>31000</v>
       </c>
@@ -16180,7 +16180,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="759" spans="1:6">
+    <row r="759" hidden="1" spans="1:6">
       <c r="A759">
         <v>30426</v>
       </c>
@@ -16200,7 +16200,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="760" spans="1:6">
+    <row r="760" hidden="1" spans="1:6">
       <c r="A760">
         <v>30296</v>
       </c>
@@ -16220,7 +16220,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="761" spans="1:6">
+    <row r="761" hidden="1" spans="1:6">
       <c r="A761">
         <v>30047</v>
       </c>
@@ -16240,7 +16240,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="762" spans="1:6">
+    <row r="762" hidden="1" spans="1:6">
       <c r="A762">
         <v>30008</v>
       </c>
@@ -16260,7 +16260,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="763" spans="1:6">
+    <row r="763" hidden="1" spans="1:6">
       <c r="A763">
         <v>28702</v>
       </c>
@@ -16280,7 +16280,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="764" spans="1:6">
+    <row r="764" hidden="1" spans="1:6">
       <c r="A764">
         <v>28000</v>
       </c>
@@ -16300,7 +16300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="765" spans="1:6">
+    <row r="765" hidden="1" spans="1:6">
       <c r="A765">
         <v>27939</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="766" spans="1:6">
+    <row r="766" hidden="1" spans="1:6">
       <c r="A766">
         <v>27000</v>
       </c>
@@ -16340,7 +16340,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="767" spans="1:6">
+    <row r="767" hidden="1" spans="1:6">
       <c r="A767">
         <v>26542</v>
       </c>
@@ -16360,7 +16360,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="768" spans="1:6">
+    <row r="768" hidden="1" spans="1:6">
       <c r="A768">
         <v>26507</v>
       </c>
@@ -16380,7 +16380,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="769" spans="1:6">
+    <row r="769" hidden="1" spans="1:6">
       <c r="A769">
         <v>26392</v>
       </c>
@@ -16400,7 +16400,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="770" spans="1:6">
+    <row r="770" hidden="1" spans="1:6">
       <c r="A770">
         <v>26232</v>
       </c>
@@ -16420,7 +16420,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="771" spans="1:6">
+    <row r="771" hidden="1" spans="1:6">
       <c r="A771">
         <v>25868</v>
       </c>
@@ -16440,7 +16440,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="772" spans="1:6">
+    <row r="772" hidden="1" spans="1:6">
       <c r="A772">
         <v>25641</v>
       </c>
@@ -16460,7 +16460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="773" spans="1:6">
+    <row r="773" hidden="1" spans="1:6">
       <c r="A773">
         <v>25583</v>
       </c>
@@ -16480,7 +16480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="774" spans="1:6">
+    <row r="774" hidden="1" spans="1:6">
       <c r="A774">
         <v>25427</v>
       </c>
@@ -16500,7 +16500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="775" spans="1:6">
+    <row r="775" hidden="1" spans="1:6">
       <c r="A775">
         <v>25327</v>
       </c>
@@ -16520,7 +16520,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="776" spans="1:6">
+    <row r="776" hidden="1" spans="1:6">
       <c r="A776">
         <v>25164</v>
       </c>
@@ -16540,7 +16540,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="777" spans="1:6">
+    <row r="777" hidden="1" spans="1:6">
       <c r="A777">
         <v>25150</v>
       </c>
@@ -16560,7 +16560,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="778" spans="1:6">
+    <row r="778" hidden="1" spans="1:6">
       <c r="A778">
         <v>25000</v>
       </c>
@@ -16580,7 +16580,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="779" spans="1:6">
+    <row r="779" hidden="1" spans="1:6">
       <c r="A779">
         <v>24688</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="780" spans="1:6">
+    <row r="780" hidden="1" spans="1:6">
       <c r="A780">
         <v>24670</v>
       </c>
@@ -16620,7 +16620,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="781" spans="1:6">
+    <row r="781" hidden="1" spans="1:6">
       <c r="A781">
         <v>24569</v>
       </c>
@@ -16640,7 +16640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="782" spans="1:6">
+    <row r="782" hidden="1" spans="1:6">
       <c r="A782">
         <v>24535</v>
       </c>
@@ -16660,7 +16660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="783" spans="1:6">
+    <row r="783" hidden="1" spans="1:6">
       <c r="A783">
         <v>24334</v>
       </c>
@@ -16680,7 +16680,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="784" spans="1:6">
+    <row r="784" hidden="1" spans="1:6">
       <c r="A784">
         <v>24244</v>
       </c>
@@ -16700,7 +16700,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="785" spans="1:6">
+    <row r="785" hidden="1" spans="1:6">
       <c r="A785">
         <v>23969</v>
       </c>
@@ -16720,7 +16720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="786" spans="1:6">
+    <row r="786" hidden="1" spans="1:6">
       <c r="A786">
         <v>23890</v>
       </c>
@@ -16740,7 +16740,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="787" spans="1:6">
+    <row r="787" hidden="1" spans="1:6">
       <c r="A787">
         <v>23784</v>
       </c>
@@ -16760,7 +16760,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="788" spans="1:6">
+    <row r="788" hidden="1" spans="1:6">
       <c r="A788">
         <v>23635</v>
       </c>
@@ -16780,7 +16780,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="789" spans="1:6">
+    <row r="789" hidden="1" spans="1:6">
       <c r="A789">
         <v>23369</v>
       </c>
@@ -16800,7 +16800,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="790" spans="1:6">
+    <row r="790" hidden="1" spans="1:6">
       <c r="A790">
         <v>23326</v>
       </c>
@@ -16820,7 +16820,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="791" spans="1:6">
+    <row r="791" hidden="1" spans="1:6">
       <c r="A791">
         <v>23000</v>
       </c>
@@ -16840,7 +16840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="792" spans="1:6">
+    <row r="792" hidden="1" spans="1:6">
       <c r="A792">
         <v>22559</v>
       </c>
@@ -16860,7 +16860,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="793" spans="1:6">
+    <row r="793" hidden="1" spans="1:6">
       <c r="A793">
         <v>22421</v>
       </c>
@@ -16880,7 +16880,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="794" spans="1:6">
+    <row r="794" hidden="1" spans="1:6">
       <c r="A794">
         <v>22373</v>
       </c>
@@ -16900,7 +16900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="795" spans="1:6">
+    <row r="795" hidden="1" spans="1:6">
       <c r="A795">
         <v>22219</v>
       </c>
@@ -16920,7 +16920,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="796" spans="1:6">
+    <row r="796" hidden="1" spans="1:6">
       <c r="A796">
         <v>22104</v>
       </c>
@@ -16940,7 +16940,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="797" spans="1:6">
+    <row r="797" hidden="1" spans="1:6">
       <c r="A797">
         <v>22000</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="798" spans="1:6">
+    <row r="798" hidden="1" spans="1:6">
       <c r="A798">
         <v>21988</v>
       </c>
@@ -16980,7 +16980,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="799" spans="1:6">
+    <row r="799" hidden="1" spans="1:6">
       <c r="A799">
         <v>21939</v>
       </c>
@@ -17000,7 +17000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="800" spans="1:6">
+    <row r="800" hidden="1" spans="1:6">
       <c r="A800">
         <v>21796</v>
       </c>
@@ -17020,7 +17020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="801" spans="1:6">
+    <row r="801" hidden="1" spans="1:6">
       <c r="A801">
         <v>21557</v>
       </c>
@@ -17040,7 +17040,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="802" spans="1:6">
+    <row r="802" hidden="1" spans="1:6">
       <c r="A802">
         <v>21510</v>
       </c>
@@ -17060,7 +17060,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="803" spans="1:6">
+    <row r="803" hidden="1" spans="1:6">
       <c r="A803">
         <v>21062</v>
       </c>
@@ -17080,7 +17080,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="804" spans="1:6">
+    <row r="804" hidden="1" spans="1:6">
       <c r="A804">
         <v>20640</v>
       </c>
@@ -17100,7 +17100,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="805" spans="1:6">
+    <row r="805" hidden="1" spans="1:6">
       <c r="A805">
         <v>20000</v>
       </c>
@@ -17120,7 +17120,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="806" spans="1:6">
+    <row r="806" hidden="1" spans="1:6">
       <c r="A806">
         <v>19789</v>
       </c>
@@ -17140,7 +17140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="807" spans="1:6">
+    <row r="807" hidden="1" spans="1:6">
       <c r="A807">
         <v>19138</v>
       </c>
@@ -17160,7 +17160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="808" spans="1:6">
+    <row r="808" hidden="1" spans="1:6">
       <c r="A808">
         <v>19052</v>
       </c>
@@ -17180,7 +17180,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="809" spans="1:6">
+    <row r="809" hidden="1" spans="1:6">
       <c r="A809">
         <v>18919</v>
       </c>
@@ -17200,7 +17200,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="810" spans="1:6">
+    <row r="810" hidden="1" spans="1:6">
       <c r="A810">
         <v>18298</v>
       </c>
@@ -17220,7 +17220,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="811" spans="1:6">
+    <row r="811" hidden="1" spans="1:6">
       <c r="A811">
         <v>17991</v>
       </c>
@@ -17240,7 +17240,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="812" spans="1:6">
+    <row r="812" hidden="1" spans="1:6">
       <c r="A812">
         <v>17788</v>
       </c>
@@ -17260,7 +17260,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="813" spans="1:6">
+    <row r="813" hidden="1" spans="1:6">
       <c r="A813">
         <v>17655</v>
       </c>
@@ -17280,7 +17280,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="814" spans="1:6">
+    <row r="814" hidden="1" spans="1:6">
       <c r="A814">
         <v>17520</v>
       </c>
@@ -17300,7 +17300,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="815" spans="1:6">
+    <row r="815" hidden="1" spans="1:6">
       <c r="A815">
         <v>17439</v>
       </c>
@@ -17320,7 +17320,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="816" spans="1:6">
+    <row r="816" hidden="1" spans="1:6">
       <c r="A816">
         <v>17402</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="817" spans="1:6">
+    <row r="817" hidden="1" spans="1:6">
       <c r="A817">
         <v>15984</v>
       </c>
@@ -17360,7 +17360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="818" spans="1:6">
+    <row r="818" hidden="1" spans="1:6">
       <c r="A818">
         <v>15800</v>
       </c>
@@ -17380,7 +17380,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="819" spans="1:6">
+    <row r="819" hidden="1" spans="1:6">
       <c r="A819">
         <v>15703</v>
       </c>
@@ -17400,7 +17400,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="820" spans="1:6">
+    <row r="820" hidden="1" spans="1:6">
       <c r="A820">
         <v>15682</v>
       </c>
@@ -17420,7 +17420,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="821" spans="1:6">
+    <row r="821" hidden="1" spans="1:6">
       <c r="A821">
         <v>15478</v>
       </c>
@@ -17440,7 +17440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="822" spans="1:6">
+    <row r="822" hidden="1" spans="1:6">
       <c r="A822">
         <v>15153</v>
       </c>
@@ -17460,7 +17460,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="823" spans="1:6">
+    <row r="823" hidden="1" spans="1:6">
       <c r="A823">
         <v>15000</v>
       </c>
@@ -17480,7 +17480,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="824" spans="1:6">
+    <row r="824" hidden="1" spans="1:6">
       <c r="A824">
         <v>14844</v>
       </c>
@@ -17500,7 +17500,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="825" spans="1:6">
+    <row r="825" hidden="1" spans="1:6">
       <c r="A825">
         <v>14474</v>
       </c>
@@ -17520,7 +17520,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="826" spans="1:6">
+    <row r="826" hidden="1" spans="1:6">
       <c r="A826">
         <v>14231</v>
       </c>
@@ -17540,7 +17540,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="827" spans="1:6">
+    <row r="827" hidden="1" spans="1:6">
       <c r="A827">
         <v>14198</v>
       </c>
@@ -17560,7 +17560,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="828" spans="1:6">
+    <row r="828" hidden="1" spans="1:6">
       <c r="A828">
         <v>14000</v>
       </c>
@@ -17580,7 +17580,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="829" spans="1:6">
+    <row r="829" hidden="1" spans="1:6">
       <c r="A829">
         <v>14000</v>
       </c>
@@ -17600,7 +17600,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="830" spans="1:6">
+    <row r="830" hidden="1" spans="1:6">
       <c r="A830">
         <v>14000</v>
       </c>
@@ -17620,7 +17620,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="831" spans="1:6">
+    <row r="831" hidden="1" spans="1:6">
       <c r="A831">
         <v>13994</v>
       </c>
@@ -17640,7 +17640,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="832" spans="1:6">
+    <row r="832" hidden="1" spans="1:6">
       <c r="A832">
         <v>13507</v>
       </c>
@@ -17660,7 +17660,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="833" spans="1:6">
+    <row r="833" hidden="1" spans="1:6">
       <c r="A833">
         <v>13459</v>
       </c>
@@ -17680,7 +17680,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="834" spans="1:6">
+    <row r="834" hidden="1" spans="1:6">
       <c r="A834">
         <v>13214</v>
       </c>
@@ -17700,7 +17700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="835" spans="1:6">
+    <row r="835" hidden="1" spans="1:6">
       <c r="A835">
         <v>13203</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="836" spans="1:6">
+    <row r="836" hidden="1" spans="1:6">
       <c r="A836">
         <v>13000</v>
       </c>
@@ -17740,7 +17740,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="837" spans="1:6">
+    <row r="837" hidden="1" spans="1:6">
       <c r="A837">
         <v>12976</v>
       </c>
@@ -17760,7 +17760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="838" spans="1:6">
+    <row r="838" hidden="1" spans="1:6">
       <c r="A838">
         <v>12932</v>
       </c>
@@ -17780,7 +17780,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="839" spans="1:6">
+    <row r="839" hidden="1" spans="1:6">
       <c r="A839">
         <v>12818</v>
       </c>
@@ -17800,7 +17800,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="840" spans="1:6">
+    <row r="840" hidden="1" spans="1:6">
       <c r="A840">
         <v>12783</v>
       </c>
@@ -17820,7 +17820,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="841" spans="1:6">
+    <row r="841" hidden="1" spans="1:6">
       <c r="A841">
         <v>12777</v>
       </c>
@@ -17840,7 +17840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="842" spans="1:6">
+    <row r="842" hidden="1" spans="1:6">
       <c r="A842">
         <v>12762</v>
       </c>
@@ -17860,7 +17860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="843" spans="1:6">
+    <row r="843" hidden="1" spans="1:6">
       <c r="A843">
         <v>12724</v>
       </c>
@@ -17880,7 +17880,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="844" spans="1:6">
+    <row r="844" hidden="1" spans="1:6">
       <c r="A844">
         <v>12292</v>
       </c>
@@ -17900,7 +17900,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="845" spans="1:6">
+    <row r="845" hidden="1" spans="1:6">
       <c r="A845">
         <v>12000</v>
       </c>
@@ -17920,7 +17920,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="846" spans="1:6">
+    <row r="846" hidden="1" spans="1:6">
       <c r="A846">
         <v>12000</v>
       </c>
@@ -17940,7 +17940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="847" spans="1:6">
+    <row r="847" hidden="1" spans="1:6">
       <c r="A847">
         <v>11886</v>
       </c>
@@ -17960,7 +17960,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="848" spans="1:6">
+    <row r="848" hidden="1" spans="1:6">
       <c r="A848">
         <v>11815</v>
       </c>
@@ -17980,7 +17980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="849" spans="1:6">
+    <row r="849" hidden="1" spans="1:6">
       <c r="A849">
         <v>11693</v>
       </c>
@@ -18000,7 +18000,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="850" spans="1:6">
+    <row r="850" hidden="1" spans="1:6">
       <c r="A850">
         <v>11563</v>
       </c>
@@ -18020,7 +18020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="851" spans="1:6">
+    <row r="851" hidden="1" spans="1:6">
       <c r="A851">
         <v>11451</v>
       </c>
@@ -18040,7 +18040,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="852" spans="1:6">
+    <row r="852" hidden="1" spans="1:6">
       <c r="A852">
         <v>11090</v>
       </c>
@@ -18060,7 +18060,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="853" spans="1:6">
+    <row r="853" hidden="1" spans="1:6">
       <c r="A853">
         <v>10988</v>
       </c>
@@ -18080,7 +18080,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="854" spans="1:6">
+    <row r="854" hidden="1" spans="1:6">
       <c r="A854">
         <v>10969</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="855" spans="1:6">
+    <row r="855" hidden="1" spans="1:6">
       <c r="A855">
         <v>10395</v>
       </c>
@@ -18120,7 +18120,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="856" spans="1:6">
+    <row r="856" hidden="1" spans="1:6">
       <c r="A856">
         <v>10293</v>
       </c>
@@ -18140,7 +18140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="857" spans="1:6">
+    <row r="857" hidden="1" spans="1:6">
       <c r="A857">
         <v>10195</v>
       </c>
@@ -18160,7 +18160,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="858" spans="1:6">
+    <row r="858" hidden="1" spans="1:6">
       <c r="A858">
         <v>10150</v>
       </c>
@@ -18180,7 +18180,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="859" spans="1:6">
+    <row r="859" hidden="1" spans="1:6">
       <c r="A859">
         <v>10117</v>
       </c>
@@ -18200,7 +18200,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="860" spans="1:6">
+    <row r="860" hidden="1" spans="1:6">
       <c r="A860">
         <v>10095</v>
       </c>
@@ -18220,7 +18220,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="861" spans="1:6">
+    <row r="861" hidden="1" spans="1:6">
       <c r="A861">
         <v>10032</v>
       </c>
@@ -18240,7 +18240,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="862" spans="1:6">
+    <row r="862" hidden="1" spans="1:6">
       <c r="A862">
         <v>10011</v>
       </c>
@@ -18260,7 +18260,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="863" spans="1:6">
+    <row r="863" hidden="1" spans="1:6">
       <c r="A863">
         <v>10000</v>
       </c>
@@ -18280,7 +18280,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="864" spans="1:6">
+    <row r="864" hidden="1" spans="1:6">
       <c r="A864">
         <v>9687</v>
       </c>
@@ -18300,7 +18300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="865" spans="1:6">
+    <row r="865" hidden="1" spans="1:6">
       <c r="A865">
         <v>9600</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="866" spans="1:6">
+    <row r="866" hidden="1" spans="1:6">
       <c r="A866">
         <v>9374</v>
       </c>
@@ -18340,7 +18340,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="867" spans="1:6">
+    <row r="867" hidden="1" spans="1:6">
       <c r="A867">
         <v>9255</v>
       </c>
@@ -18360,7 +18360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="868" spans="1:6">
+    <row r="868" hidden="1" spans="1:6">
       <c r="A868">
         <v>9200</v>
       </c>
@@ -18380,7 +18380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="869" spans="1:6">
+    <row r="869" hidden="1" spans="1:6">
       <c r="A869">
         <v>9061</v>
       </c>
@@ -18400,7 +18400,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="870" spans="1:6">
+    <row r="870" hidden="1" spans="1:6">
       <c r="A870">
         <v>9008</v>
       </c>
@@ -18420,7 +18420,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="871" spans="1:6">
+    <row r="871" hidden="1" spans="1:6">
       <c r="A871">
         <v>8961</v>
       </c>
@@ -18440,7 +18440,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="872" spans="1:6">
+    <row r="872" hidden="1" spans="1:6">
       <c r="A872">
         <v>8841</v>
       </c>
@@ -18460,7 +18460,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="873" spans="1:6">
+    <row r="873" hidden="1" spans="1:6">
       <c r="A873">
         <v>8642</v>
       </c>
@@ -18480,7 +18480,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="874" spans="1:6">
+    <row r="874" hidden="1" spans="1:6">
       <c r="A874">
         <v>8547</v>
       </c>
@@ -18500,7 +18500,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="875" spans="1:6">
+    <row r="875" hidden="1" spans="1:6">
       <c r="A875">
         <v>8543</v>
       </c>
@@ -18520,7 +18520,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="876" spans="1:6">
+    <row r="876" hidden="1" spans="1:6">
       <c r="A876">
         <v>8176</v>
       </c>
@@ -18540,7 +18540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="877" spans="1:6">
+    <row r="877" hidden="1" spans="1:6">
       <c r="A877">
         <v>8132</v>
       </c>
@@ -18560,7 +18560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="878" spans="1:6">
+    <row r="878" hidden="1" spans="1:6">
       <c r="A878">
         <v>8093</v>
       </c>
@@ -18580,7 +18580,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="879" spans="1:6">
+    <row r="879" hidden="1" spans="1:6">
       <c r="A879">
         <v>7998</v>
       </c>
@@ -18600,7 +18600,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="880" spans="1:6">
+    <row r="880" hidden="1" spans="1:6">
       <c r="A880">
         <v>7397</v>
       </c>
@@ -18620,7 +18620,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="881" spans="1:6">
+    <row r="881" hidden="1" spans="1:6">
       <c r="A881">
         <v>7333</v>
       </c>
@@ -18640,7 +18640,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="882" spans="1:6">
+    <row r="882" hidden="1" spans="1:6">
       <c r="A882">
         <v>7300</v>
       </c>
@@ -18660,7 +18660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="883" spans="1:6">
+    <row r="883" hidden="1" spans="1:6">
       <c r="A883">
         <v>7148</v>
       </c>
@@ -18680,7 +18680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="884" spans="1:6">
+    <row r="884" hidden="1" spans="1:6">
       <c r="A884">
         <v>6929</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="885" spans="1:6">
+    <row r="885" hidden="1" spans="1:6">
       <c r="A885">
         <v>6894</v>
       </c>
@@ -18720,7 +18720,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="886" spans="1:6">
+    <row r="886" hidden="1" spans="1:6">
       <c r="A886">
         <v>6719</v>
       </c>
@@ -18740,7 +18740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="887" spans="1:6">
+    <row r="887" hidden="1" spans="1:6">
       <c r="A887">
         <v>6714</v>
       </c>
@@ -18760,7 +18760,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="888" spans="1:6">
+    <row r="888" hidden="1" spans="1:6">
       <c r="A888">
         <v>6669</v>
       </c>
@@ -18780,7 +18780,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="889" spans="1:6">
+    <row r="889" hidden="1" spans="1:6">
       <c r="A889">
         <v>6551</v>
       </c>
@@ -18800,7 +18800,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="890" spans="1:6">
+    <row r="890" hidden="1" spans="1:6">
       <c r="A890">
         <v>6413</v>
       </c>
@@ -18820,7 +18820,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="891" spans="1:6">
+    <row r="891" hidden="1" spans="1:6">
       <c r="A891">
         <v>6400</v>
       </c>
@@ -18840,7 +18840,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="892" spans="1:6">
+    <row r="892" hidden="1" spans="1:6">
       <c r="A892">
         <v>6300</v>
       </c>
@@ -18860,7 +18860,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="893" spans="1:6">
+    <row r="893" hidden="1" spans="1:6">
       <c r="A893">
         <v>6293</v>
       </c>
@@ -18880,7 +18880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="894" spans="1:6">
+    <row r="894" hidden="1" spans="1:6">
       <c r="A894">
         <v>6273</v>
       </c>
@@ -18900,7 +18900,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="895" spans="1:6">
+    <row r="895" hidden="1" spans="1:6">
       <c r="A895">
         <v>6206</v>
       </c>
@@ -18920,7 +18920,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="896" spans="1:6">
+    <row r="896" hidden="1" spans="1:6">
       <c r="A896">
         <v>6000</v>
       </c>
@@ -18940,7 +18940,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="897" spans="1:6">
+    <row r="897" hidden="1" spans="1:6">
       <c r="A897">
         <v>5796</v>
       </c>
@@ -18960,7 +18960,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="898" spans="1:6">
+    <row r="898" hidden="1" spans="1:6">
       <c r="A898">
         <v>5755</v>
       </c>
@@ -18980,7 +18980,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="899" spans="1:6">
+    <row r="899" hidden="1" spans="1:6">
       <c r="A899">
         <v>5391</v>
       </c>
@@ -19000,7 +19000,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="900" spans="1:6">
+    <row r="900" hidden="1" spans="1:6">
       <c r="A900">
         <v>5358</v>
       </c>
@@ -19020,7 +19020,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="901" spans="1:6">
+    <row r="901" hidden="1" spans="1:6">
       <c r="A901">
         <v>5222</v>
       </c>
@@ -19040,7 +19040,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="902" spans="1:6">
+    <row r="902" hidden="1" spans="1:6">
       <c r="A902">
         <v>5200</v>
       </c>
@@ -19060,7 +19060,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="903" spans="1:6">
+    <row r="903" hidden="1" spans="1:6">
       <c r="A903">
         <v>4834</v>
       </c>
@@ -19080,7 +19080,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="904" spans="1:6">
+    <row r="904" hidden="1" spans="1:6">
       <c r="A904">
         <v>4802</v>
       </c>
@@ -19100,7 +19100,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="905" spans="1:6">
+    <row r="905" hidden="1" spans="1:6">
       <c r="A905">
         <v>4756</v>
       </c>
@@ -19120,7 +19120,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="906" spans="1:6">
+    <row r="906" hidden="1" spans="1:6">
       <c r="A906">
         <v>4679</v>
       </c>
@@ -19140,7 +19140,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="907" spans="1:6">
+    <row r="907" hidden="1" spans="1:6">
       <c r="A907">
         <v>4656</v>
       </c>
@@ -19160,7 +19160,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="908" spans="1:6">
+    <row r="908" hidden="1" spans="1:6">
       <c r="A908">
         <v>4400</v>
       </c>
@@ -19180,7 +19180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="909" spans="1:6">
+    <row r="909" hidden="1" spans="1:6">
       <c r="A909">
         <v>4300</v>
       </c>
@@ -19200,7 +19200,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="910" spans="1:6">
+    <row r="910" hidden="1" spans="1:6">
       <c r="A910">
         <v>4098</v>
       </c>
@@ -19220,7 +19220,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="911" spans="1:6">
+    <row r="911" hidden="1" spans="1:6">
       <c r="A911">
         <v>4000</v>
       </c>
@@ -19240,7 +19240,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="912" spans="1:6">
+    <row r="912" hidden="1" spans="1:6">
       <c r="A912">
         <v>3859</v>
       </c>
@@ -19260,7 +19260,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="913" spans="1:6">
+    <row r="913" hidden="1" spans="1:6">
       <c r="A913">
         <v>3466</v>
       </c>
@@ -19280,7 +19280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="914" spans="1:6">
+    <row r="914" hidden="1" spans="1:6">
       <c r="A914">
         <v>3464</v>
       </c>
@@ -19300,7 +19300,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="915" spans="1:6">
+    <row r="915" hidden="1" spans="1:6">
       <c r="A915">
         <v>3398</v>
       </c>
@@ -19320,7 +19320,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="916" spans="1:6">
+    <row r="916" hidden="1" spans="1:6">
       <c r="A916">
         <v>3344</v>
       </c>
@@ -19340,7 +19340,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="917" spans="1:6">
+    <row r="917" hidden="1" spans="1:6">
       <c r="A917">
         <v>3315</v>
       </c>
@@ -19360,7 +19360,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="918" spans="1:6">
+    <row r="918" hidden="1" spans="1:6">
       <c r="A918">
         <v>3131</v>
       </c>
@@ -19380,7 +19380,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="919" spans="1:6">
+    <row r="919" hidden="1" spans="1:6">
       <c r="A919">
         <v>3101</v>
       </c>
@@ -19400,7 +19400,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="920" spans="1:6">
+    <row r="920" hidden="1" spans="1:6">
       <c r="A920">
         <v>3043</v>
       </c>
@@ -19420,7 +19420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="921" spans="1:6">
+    <row r="921" hidden="1" spans="1:6">
       <c r="A921">
         <v>3023</v>
       </c>
@@ -19440,7 +19440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="922" spans="1:6">
+    <row r="922" hidden="1" spans="1:6">
       <c r="A922">
         <v>2860</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="923" spans="1:6">
+    <row r="923" hidden="1" spans="1:6">
       <c r="A923">
         <v>2775</v>
       </c>
@@ -19480,7 +19480,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="924" spans="1:6">
+    <row r="924" hidden="1" spans="1:6">
       <c r="A924">
         <v>2633</v>
       </c>
@@ -19500,7 +19500,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="925" spans="1:6">
+    <row r="925" hidden="1" spans="1:6">
       <c r="A925">
         <v>2623</v>
       </c>
@@ -19520,7 +19520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="926" spans="1:6">
+    <row r="926" hidden="1" spans="1:6">
       <c r="A926">
         <v>2397</v>
       </c>
@@ -19540,7 +19540,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="927" spans="1:6">
+    <row r="927" hidden="1" spans="1:6">
       <c r="A927">
         <v>2363</v>
       </c>
@@ -19560,7 +19560,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="928" spans="1:6">
+    <row r="928" hidden="1" spans="1:6">
       <c r="A928">
         <v>2172</v>
       </c>
@@ -19580,7 +19580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="929" spans="1:6">
+    <row r="929" hidden="1" spans="1:6">
       <c r="A929">
         <v>1761</v>
       </c>
@@ -19600,7 +19600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="930" spans="1:6">
+    <row r="930" hidden="1" spans="1:6">
       <c r="A930">
         <v>1600</v>
       </c>
@@ -19620,7 +19620,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="931" spans="1:6">
+    <row r="931" hidden="1" spans="1:6">
       <c r="A931">
         <v>1555</v>
       </c>
@@ -19640,7 +19640,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="932" spans="1:6">
+    <row r="932" hidden="1" spans="1:6">
       <c r="A932">
         <v>1502</v>
       </c>
@@ -19660,7 +19660,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="933" spans="1:6">
+    <row r="933" hidden="1" spans="1:6">
       <c r="A933">
         <v>1315</v>
       </c>
@@ -19680,7 +19680,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="934" spans="1:6">
+    <row r="934" hidden="1" spans="1:6">
       <c r="A934">
         <v>1253</v>
       </c>
@@ -19700,7 +19700,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="935" spans="1:6">
+    <row r="935" hidden="1" spans="1:6">
       <c r="A935">
         <v>1200</v>
       </c>
@@ -19720,7 +19720,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="936" spans="1:6">
+    <row r="936" hidden="1" spans="1:6">
       <c r="A936">
         <v>700</v>
       </c>
@@ -19740,7 +19740,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="937" spans="1:6">
+    <row r="937" hidden="1" spans="1:6">
       <c r="A937">
         <v>296</v>
       </c>
@@ -19760,7 +19760,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="938" spans="1:6">
+    <row r="938" hidden="1" spans="1:6">
       <c r="A938">
         <v>30000000</v>
       </c>
@@ -19782,6 +19782,9 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:F938">
+    <filterColumn colId="1">
+      <top10 val="10" filterVal="5101"/>
+    </filterColumn>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
